--- a/00_プロジェクト管理/WBSガントチャート_07.xlsx
+++ b/00_プロジェクト管理/WBSガントチャート_07.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1237" documentId="13_ncr:1_{CF2DAAD7-85C2-4067-B19B-C90FB7DE682B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DCD8AF6C-6782-48A8-817C-7EB540543195}"/>
+  <xr:revisionPtr revIDLastSave="1247" documentId="13_ncr:1_{CF2DAAD7-85C2-4067-B19B-C90FB7DE682B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1F3C5886-E1C7-4884-9A35-54068ECE8F74}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="10350" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="85">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -306,7 +306,7 @@
     <t>新規作成</t>
   </si>
   <si>
-    <t>着手</t>
+    <t>完了</t>
   </si>
   <si>
     <t>設計</t>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>非機能要求一覧</t>
+  </si>
+  <si>
+    <t>着手</t>
   </si>
   <si>
     <t>e</t>
@@ -1609,47 +1612,26 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1663,43 +1645,22 @@
     <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1708,22 +1669,61 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1744,46 +1744,49 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6622,8 +6625,8 @@
   <dimension ref="A1:AO226"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19:I25"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29:F30"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
     </sheetView>
@@ -6631,206 +6634,206 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
   <cols>
     <col min="1" max="1" width="10" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.75" style="12" customWidth="1"/>
-    <col min="3" max="3" width="2.25" style="12" customWidth="1"/>
-    <col min="4" max="4" width="44.125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="7.125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="38.875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="2.28515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="38.85546875" style="12" customWidth="1"/>
     <col min="8" max="8" width="8" style="13" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="13" customWidth="1"/>
-    <col min="10" max="10" width="7.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="14.25" customHeight="1">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="119" t="s">
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="119" t="s">
+      <c r="F1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="123" t="s">
+      <c r="G1" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="119" t="s">
+      <c r="H1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="119" t="s">
+      <c r="I1" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="119" t="s">
+      <c r="J1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="145" t="s">
+      <c r="K1" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="103">
+      <c r="L1" s="96">
         <v>43984</v>
       </c>
-      <c r="M1" s="104"/>
-      <c r="N1" s="103">
+      <c r="M1" s="97"/>
+      <c r="N1" s="96">
         <v>43985</v>
       </c>
-      <c r="O1" s="104"/>
-      <c r="P1" s="103">
+      <c r="O1" s="97"/>
+      <c r="P1" s="96">
         <v>43986</v>
       </c>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="103">
+      <c r="Q1" s="97"/>
+      <c r="R1" s="96">
         <v>43987</v>
       </c>
-      <c r="S1" s="104"/>
-      <c r="T1" s="103">
+      <c r="S1" s="97"/>
+      <c r="T1" s="96">
         <v>43990</v>
       </c>
-      <c r="U1" s="104"/>
-      <c r="V1" s="103">
+      <c r="U1" s="97"/>
+      <c r="V1" s="96">
         <v>43991</v>
       </c>
-      <c r="W1" s="104"/>
-      <c r="X1" s="103">
+      <c r="W1" s="97"/>
+      <c r="X1" s="96">
         <v>43992</v>
       </c>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="103">
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="96">
         <v>43993</v>
       </c>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="103">
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="96">
         <v>43994</v>
       </c>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="103">
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="96">
         <v>43997</v>
       </c>
-      <c r="AE1" s="104"/>
+      <c r="AE1" s="97"/>
     </row>
     <row r="2" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A2" s="124"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="117" t="s">
+      <c r="A2" s="125"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="118"/>
-      <c r="N2" s="105" t="s">
+      <c r="M2" s="138"/>
+      <c r="N2" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="106"/>
-      <c r="P2" s="105" t="s">
+      <c r="O2" s="99"/>
+      <c r="P2" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="105" t="s">
+      <c r="Q2" s="99"/>
+      <c r="R2" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="106"/>
-      <c r="T2" s="105" t="s">
+      <c r="S2" s="99"/>
+      <c r="T2" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="106"/>
-      <c r="V2" s="105" t="s">
+      <c r="U2" s="99"/>
+      <c r="V2" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="106"/>
-      <c r="X2" s="105" t="s">
+      <c r="W2" s="99"/>
+      <c r="X2" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="105" t="s">
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="106"/>
-      <c r="AB2" s="105" t="s">
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="AC2" s="106"/>
-      <c r="AD2" s="105" t="s">
+      <c r="AC2" s="99"/>
+      <c r="AD2" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="AE2" s="106"/>
+      <c r="AE2" s="99"/>
     </row>
     <row r="3" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A3" s="124"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="109" t="s">
+      <c r="A3" s="125"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="108"/>
-      <c r="N3" s="107" t="s">
+      <c r="M3" s="140"/>
+      <c r="N3" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="108"/>
-      <c r="P3" s="107" t="s">
+      <c r="O3" s="140"/>
+      <c r="P3" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="102" t="s">
+      <c r="Q3" s="140"/>
+      <c r="R3" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="102"/>
-      <c r="T3" s="102" t="s">
+      <c r="S3" s="100"/>
+      <c r="T3" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="102"/>
-      <c r="V3" s="102" t="s">
+      <c r="U3" s="100"/>
+      <c r="V3" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="102"/>
-      <c r="X3" s="109" t="s">
+      <c r="W3" s="100"/>
+      <c r="X3" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="107" t="s">
+      <c r="Y3" s="140"/>
+      <c r="Z3" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="AA3" s="108"/>
-      <c r="AB3" s="107" t="s">
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="102" t="s">
+      <c r="AC3" s="140"/>
+      <c r="AD3" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="AE3" s="102"/>
+      <c r="AE3" s="100"/>
     </row>
     <row r="4" spans="1:31" ht="13.5" customHeight="1" thickBot="1">
       <c r="A4" s="126"/>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="147"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="120"/>
       <c r="L4" s="2" t="s">
         <v>23</v>
       </c>
@@ -6893,15 +6896,15 @@
       </c>
     </row>
     <row r="5" spans="1:31" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="143"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="108"/>
       <c r="H5" s="16" t="s">
         <v>26</v>
       </c>
@@ -6993,13 +6996,13 @@
       </c>
     </row>
     <row r="6" spans="1:31" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="131"/>
-      <c r="B6" s="132"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="144"/>
+      <c r="A6" s="130"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="109"/>
       <c r="H6" s="18" t="s">
         <v>27</v>
       </c>
@@ -7091,15 +7094,15 @@
       </c>
     </row>
     <row r="7" spans="1:31" ht="12" customHeight="1" thickTop="1">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="98"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="133"/>
       <c r="H7" s="4" t="s">
         <v>26</v>
       </c>
@@ -7193,13 +7196,13 @@
       </c>
     </row>
     <row r="8" spans="1:31" ht="12" customHeight="1">
-      <c r="A8" s="92"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="99"/>
+      <c r="A8" s="115"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="134"/>
       <c r="H8" s="6" t="s">
         <v>27</v>
       </c>
@@ -7592,7 +7595,9 @@
       <c r="E15" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="80"/>
+      <c r="F15" s="80" t="s">
+        <v>31</v>
+      </c>
       <c r="G15" s="82" t="s">
         <v>42</v>
       </c>
@@ -7774,7 +7779,9 @@
       <c r="E19" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="80"/>
+      <c r="F19" s="80" t="s">
+        <v>31</v>
+      </c>
       <c r="G19" s="82" t="s">
         <v>35</v>
       </c>
@@ -7870,7 +7877,9 @@
       <c r="E21" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="80"/>
+      <c r="F21" s="80" t="s">
+        <v>31</v>
+      </c>
       <c r="G21" s="82" t="s">
         <v>35</v>
       </c>
@@ -7966,7 +7975,9 @@
       <c r="E23" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="80"/>
+      <c r="F23" s="80" t="s">
+        <v>48</v>
+      </c>
       <c r="G23" s="82" t="s">
         <v>35</v>
       </c>
@@ -8053,7 +8064,7 @@
     <row r="25" spans="1:31" ht="12" customHeight="1">
       <c r="A25" s="72"/>
       <c r="B25" s="74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" s="76" t="s">
         <v>40</v>
@@ -8062,9 +8073,11 @@
       <c r="E25" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="80"/>
+      <c r="F25" s="80" t="s">
+        <v>48</v>
+      </c>
       <c r="G25" s="82" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H25" s="42" t="str">
         <f>IF(E25="","","予定")</f>
@@ -8147,7 +8160,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="76" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27" s="83"/>
       <c r="D27" s="77"/>
@@ -8236,13 +8249,15 @@
         <v>33</v>
       </c>
       <c r="C29" s="76" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D29" s="77"/>
       <c r="E29" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="80"/>
+      <c r="F29" s="80" t="s">
+        <v>48</v>
+      </c>
       <c r="G29" s="82" t="s">
         <v>35</v>
       </c>
@@ -8328,7 +8343,7 @@
         <v>37</v>
       </c>
       <c r="C31" s="76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D31" s="77"/>
       <c r="E31" s="80" t="s">
@@ -8420,7 +8435,7 @@
         <v>39</v>
       </c>
       <c r="C33" s="76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D33" s="77"/>
       <c r="E33" s="80" t="s">
@@ -8513,7 +8528,7 @@
     <row r="35" spans="1:41" ht="12" customHeight="1">
       <c r="A35" s="72"/>
       <c r="B35" s="74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C35" s="76" t="s">
         <v>40</v>
@@ -8524,7 +8539,7 @@
       </c>
       <c r="F35" s="80"/>
       <c r="G35" s="82" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H35" s="42" t="str">
         <f>IF(E35="","","予定")</f>
@@ -8603,11 +8618,11 @@
       <c r="AE36" s="54"/>
     </row>
     <row r="37" spans="1:41" ht="12" customHeight="1">
-      <c r="A37" s="114">
+      <c r="A37" s="89">
         <v>4</v>
       </c>
       <c r="B37" s="76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C37" s="83"/>
       <c r="D37" s="77"/>
@@ -8652,7 +8667,7 @@
       <c r="AE37" s="53"/>
     </row>
     <row r="38" spans="1:41" ht="12" customHeight="1">
-      <c r="A38" s="115"/>
+      <c r="A38" s="90"/>
       <c r="B38" s="78"/>
       <c r="C38" s="84"/>
       <c r="D38" s="79"/>
@@ -8691,19 +8706,19 @@
       <c r="AE38" s="54"/>
     </row>
     <row r="39" spans="1:41" ht="12" customHeight="1">
-      <c r="A39" s="114"/>
-      <c r="B39" s="116" t="s">
+      <c r="A39" s="89"/>
+      <c r="B39" s="91" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D39" s="77"/>
-      <c r="E39" s="112" t="s">
+      <c r="E39" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="110" t="s">
+      <c r="F39" s="93"/>
+      <c r="G39" s="95" t="s">
         <v>35</v>
       </c>
       <c r="H39" s="8" t="str">
@@ -8744,13 +8759,13 @@
       <c r="AE39" s="53"/>
     </row>
     <row r="40" spans="1:41" ht="12" customHeight="1">
-      <c r="A40" s="115"/>
-      <c r="B40" s="111"/>
+      <c r="A40" s="90"/>
+      <c r="B40" s="92"/>
       <c r="C40" s="78"/>
       <c r="D40" s="79"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="113"/>
-      <c r="G40" s="111"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="92"/>
       <c r="H40" s="71" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -8783,19 +8798,19 @@
       <c r="AE40" s="54"/>
     </row>
     <row r="41" spans="1:41" ht="12" customHeight="1">
-      <c r="A41" s="114"/>
-      <c r="B41" s="116" t="s">
-        <v>56</v>
+      <c r="A41" s="89"/>
+      <c r="B41" s="91" t="s">
+        <v>57</v>
       </c>
       <c r="C41" s="76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D41" s="77"/>
-      <c r="E41" s="112" t="s">
+      <c r="E41" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="110" t="s">
+      <c r="F41" s="93"/>
+      <c r="G41" s="95" t="s">
         <v>35</v>
       </c>
       <c r="H41" s="8" t="str">
@@ -8836,13 +8851,13 @@
       <c r="AE41" s="53"/>
     </row>
     <row r="42" spans="1:41" ht="12" customHeight="1">
-      <c r="A42" s="115"/>
-      <c r="B42" s="111"/>
+      <c r="A42" s="90"/>
+      <c r="B42" s="92"/>
       <c r="C42" s="78"/>
       <c r="D42" s="79"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="113"/>
-      <c r="G42" s="111"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="92"/>
       <c r="H42" s="71" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -8877,7 +8892,7 @@
     <row r="43" spans="1:41" ht="12" customHeight="1">
       <c r="A43" s="72"/>
       <c r="B43" s="74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43" s="76" t="s">
         <v>47</v>
@@ -8969,7 +8984,7 @@
     <row r="45" spans="1:41" ht="12" customHeight="1">
       <c r="A45" s="72"/>
       <c r="B45" s="74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C45" s="76" t="s">
         <v>40</v>
@@ -8980,7 +8995,7 @@
       </c>
       <c r="F45" s="80"/>
       <c r="G45" s="82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H45" s="42" t="str">
         <f>IF(E45="","","予定")</f>
@@ -9079,11 +9094,11 @@
       <c r="AO46" s="48"/>
     </row>
     <row r="47" spans="1:41" ht="12" customHeight="1">
-      <c r="A47" s="114">
+      <c r="A47" s="89">
         <v>5</v>
       </c>
       <c r="B47" s="76" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C47" s="83"/>
       <c r="D47" s="77"/>
@@ -9122,7 +9137,7 @@
       <c r="AE47" s="53"/>
     </row>
     <row r="48" spans="1:41" ht="12" customHeight="1">
-      <c r="A48" s="115"/>
+      <c r="A48" s="90"/>
       <c r="B48" s="78"/>
       <c r="C48" s="84"/>
       <c r="D48" s="79"/>
@@ -9166,7 +9181,7 @@
         <v>33</v>
       </c>
       <c r="C49" s="76" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D49" s="77"/>
       <c r="E49" s="80" t="s">
@@ -9273,19 +9288,19 @@
       <c r="AO50" s="48"/>
     </row>
     <row r="51" spans="1:41" ht="12" customHeight="1">
-      <c r="A51" s="114"/>
-      <c r="B51" s="116" t="s">
+      <c r="A51" s="89"/>
+      <c r="B51" s="91" t="s">
         <v>45</v>
       </c>
       <c r="C51" s="76" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D51" s="77"/>
-      <c r="E51" s="112" t="s">
+      <c r="E51" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="F51" s="112"/>
-      <c r="G51" s="110" t="s">
+      <c r="F51" s="93"/>
+      <c r="G51" s="95" t="s">
         <v>35</v>
       </c>
       <c r="H51" s="8" t="str">
@@ -9326,13 +9341,13 @@
       <c r="AE51" s="53"/>
     </row>
     <row r="52" spans="1:41" ht="12" customHeight="1">
-      <c r="A52" s="115"/>
-      <c r="B52" s="111"/>
+      <c r="A52" s="90"/>
+      <c r="B52" s="92"/>
       <c r="C52" s="78"/>
       <c r="D52" s="79"/>
-      <c r="E52" s="113"/>
-      <c r="F52" s="113"/>
-      <c r="G52" s="111"/>
+      <c r="E52" s="94"/>
+      <c r="F52" s="94"/>
+      <c r="G52" s="92"/>
       <c r="H52" s="71" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -9370,7 +9385,7 @@
         <v>39</v>
       </c>
       <c r="C53" s="76" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D53" s="77"/>
       <c r="E53" s="80" t="s">
@@ -9477,20 +9492,20 @@
       <c r="AO54" s="48"/>
     </row>
     <row r="55" spans="1:41" ht="12" customHeight="1">
-      <c r="A55" s="114"/>
-      <c r="B55" s="116" t="s">
-        <v>54</v>
+      <c r="A55" s="89"/>
+      <c r="B55" s="91" t="s">
+        <v>55</v>
       </c>
       <c r="C55" s="76" t="s">
         <v>40</v>
       </c>
       <c r="D55" s="77"/>
-      <c r="E55" s="112" t="s">
+      <c r="E55" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="F55" s="112"/>
-      <c r="G55" s="110" t="s">
-        <v>63</v>
+      <c r="F55" s="93"/>
+      <c r="G55" s="95" t="s">
+        <v>64</v>
       </c>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
@@ -9529,13 +9544,13 @@
       <c r="AE55" s="53"/>
     </row>
     <row r="56" spans="1:41" ht="12" customHeight="1">
-      <c r="A56" s="115"/>
-      <c r="B56" s="111"/>
+      <c r="A56" s="90"/>
+      <c r="B56" s="92"/>
       <c r="C56" s="78"/>
       <c r="D56" s="79"/>
-      <c r="E56" s="113"/>
-      <c r="F56" s="113"/>
-      <c r="G56" s="111"/>
+      <c r="E56" s="94"/>
+      <c r="F56" s="94"/>
+      <c r="G56" s="92"/>
       <c r="H56" s="71" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -9568,11 +9583,11 @@
       <c r="AE56" s="54"/>
     </row>
     <row r="57" spans="1:41" ht="12" customHeight="1">
-      <c r="A57" s="114">
+      <c r="A57" s="89">
         <v>6</v>
       </c>
       <c r="B57" s="76" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C57" s="83"/>
       <c r="D57" s="77"/>
@@ -9611,7 +9626,7 @@
       <c r="AE57" s="53"/>
     </row>
     <row r="58" spans="1:41" ht="12" customHeight="1">
-      <c r="A58" s="115"/>
+      <c r="A58" s="90"/>
       <c r="B58" s="78"/>
       <c r="C58" s="84"/>
       <c r="D58" s="79"/>
@@ -9650,19 +9665,19 @@
       <c r="AE58" s="54"/>
     </row>
     <row r="59" spans="1:41" ht="12" customHeight="1">
-      <c r="A59" s="114"/>
-      <c r="B59" s="116" t="s">
+      <c r="A59" s="89"/>
+      <c r="B59" s="91" t="s">
         <v>33</v>
       </c>
       <c r="C59" s="76" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D59" s="77"/>
-      <c r="E59" s="112" t="s">
+      <c r="E59" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="F59" s="112"/>
-      <c r="G59" s="110" t="s">
+      <c r="F59" s="93"/>
+      <c r="G59" s="95" t="s">
         <v>35</v>
       </c>
       <c r="H59" s="8" t="str">
@@ -9703,13 +9718,13 @@
       <c r="AE59" s="53"/>
     </row>
     <row r="60" spans="1:41" ht="12" customHeight="1">
-      <c r="A60" s="115"/>
-      <c r="B60" s="111"/>
+      <c r="A60" s="90"/>
+      <c r="B60" s="92"/>
       <c r="C60" s="78"/>
       <c r="D60" s="79"/>
-      <c r="E60" s="113"/>
-      <c r="F60" s="113"/>
-      <c r="G60" s="111"/>
+      <c r="E60" s="94"/>
+      <c r="F60" s="94"/>
+      <c r="G60" s="92"/>
       <c r="H60" s="71" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -9747,7 +9762,7 @@
         <v>37</v>
       </c>
       <c r="C61" s="76" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D61" s="77"/>
       <c r="E61" s="80" t="s">
@@ -9854,18 +9869,18 @@
       <c r="AO62" s="48"/>
     </row>
     <row r="63" spans="1:41" ht="12" customHeight="1">
-      <c r="A63" s="114"/>
-      <c r="B63" s="116" t="s">
+      <c r="A63" s="89"/>
+      <c r="B63" s="91" t="s">
         <v>39</v>
       </c>
       <c r="C63" s="76" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D63" s="77"/>
-      <c r="E63" s="112" t="s">
+      <c r="E63" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="F63" s="112"/>
+      <c r="F63" s="93"/>
       <c r="G63" s="82" t="s">
         <v>35</v>
       </c>
@@ -9907,12 +9922,12 @@
       <c r="AE63" s="53"/>
     </row>
     <row r="64" spans="1:41" ht="12" customHeight="1">
-      <c r="A64" s="115"/>
-      <c r="B64" s="111"/>
+      <c r="A64" s="90"/>
+      <c r="B64" s="92"/>
       <c r="C64" s="78"/>
       <c r="D64" s="79"/>
-      <c r="E64" s="113"/>
-      <c r="F64" s="113"/>
+      <c r="E64" s="94"/>
+      <c r="F64" s="94"/>
       <c r="G64" s="75"/>
       <c r="H64" s="71" t="str">
         <f>IF(E63="","","実績")</f>
@@ -9948,7 +9963,7 @@
     <row r="65" spans="1:41" ht="12" customHeight="1">
       <c r="A65" s="72"/>
       <c r="B65" s="74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C65" s="76" t="s">
         <v>40</v>
@@ -9959,7 +9974,7 @@
       </c>
       <c r="F65" s="80"/>
       <c r="G65" s="82" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H65" s="42" t="str">
         <f>IF(E65="","","予定")</f>
@@ -10062,7 +10077,7 @@
         <v>7</v>
       </c>
       <c r="B67" s="76" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C67" s="83"/>
       <c r="D67" s="77"/>
@@ -10145,7 +10160,7 @@
         <v>33</v>
       </c>
       <c r="C69" s="76" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D69" s="77"/>
       <c r="E69" s="80" t="s">
@@ -10237,7 +10252,7 @@
         <v>37</v>
       </c>
       <c r="C71" s="76" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D71" s="77"/>
       <c r="E71" s="80" t="s">
@@ -10349,7 +10364,7 @@
         <v>39</v>
       </c>
       <c r="C73" s="76" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D73" s="77"/>
       <c r="E73" s="80" t="s">
@@ -10438,7 +10453,7 @@
     <row r="75" spans="1:41" ht="12" customHeight="1">
       <c r="A75" s="72"/>
       <c r="B75" s="74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C75" s="76" t="s">
         <v>40</v>
@@ -10449,7 +10464,7 @@
       </c>
       <c r="F75" s="80"/>
       <c r="G75" s="82" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H75" s="42" t="str">
         <f>IF(E75="","","予定")</f>
@@ -10552,7 +10567,7 @@
         <v>8</v>
       </c>
       <c r="B77" s="76" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C77" s="83"/>
       <c r="D77" s="77"/>
@@ -10652,15 +10667,15 @@
       <c r="AO78" s="48"/>
     </row>
     <row r="79" spans="1:41" ht="12" customHeight="1" thickTop="1">
-      <c r="A79" s="136" t="s">
-        <v>74</v>
-      </c>
-      <c r="B79" s="137"/>
-      <c r="C79" s="137"/>
-      <c r="D79" s="138"/>
-      <c r="E79" s="97"/>
-      <c r="F79" s="97"/>
-      <c r="G79" s="98"/>
+      <c r="A79" s="112" t="s">
+        <v>75</v>
+      </c>
+      <c r="B79" s="113"/>
+      <c r="C79" s="113"/>
+      <c r="D79" s="114"/>
+      <c r="E79" s="135"/>
+      <c r="F79" s="135"/>
+      <c r="G79" s="133"/>
       <c r="H79" s="4" t="s">
         <v>26</v>
       </c>
@@ -10749,13 +10764,13 @@
       <c r="AO79" s="48"/>
     </row>
     <row r="80" spans="1:41" ht="12" customHeight="1">
-      <c r="A80" s="92"/>
-      <c r="B80" s="93"/>
-      <c r="C80" s="93"/>
-      <c r="D80" s="94"/>
-      <c r="E80" s="96"/>
-      <c r="F80" s="96"/>
-      <c r="G80" s="99"/>
+      <c r="A80" s="115"/>
+      <c r="B80" s="116"/>
+      <c r="C80" s="116"/>
+      <c r="D80" s="117"/>
+      <c r="E80" s="136"/>
+      <c r="F80" s="136"/>
+      <c r="G80" s="134"/>
       <c r="H80" s="6" t="s">
         <v>27</v>
       </c>
@@ -10868,7 +10883,7 @@
       <c r="E81" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="F81" s="100"/>
+      <c r="F81" s="142"/>
       <c r="G81" s="87" t="s">
         <v>32</v>
       </c>
@@ -10923,7 +10938,7 @@
       <c r="C82" s="84"/>
       <c r="D82" s="79"/>
       <c r="E82" s="86"/>
-      <c r="F82" s="101"/>
+      <c r="F82" s="143"/>
       <c r="G82" s="88"/>
       <c r="H82" s="24" t="str">
         <f>IF(E81="","","実績")</f>
@@ -11648,7 +11663,7 @@
       </c>
       <c r="F95" s="80"/>
       <c r="G95" s="82" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H95" s="42" t="str">
         <f>IF(E95="","","予定")</f>
@@ -11749,7 +11764,7 @@
     <row r="97" spans="1:41" ht="12" customHeight="1">
       <c r="A97" s="72"/>
       <c r="B97" s="74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C97" s="76" t="s">
         <v>40</v>
@@ -11863,7 +11878,7 @@
         <v>3</v>
       </c>
       <c r="B99" s="76" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C99" s="83"/>
       <c r="D99" s="77"/>
@@ -11972,7 +11987,7 @@
         <v>33</v>
       </c>
       <c r="C101" s="76" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D101" s="77"/>
       <c r="E101" s="80" t="s">
@@ -12084,7 +12099,7 @@
         <v>37</v>
       </c>
       <c r="C103" s="76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D103" s="77"/>
       <c r="E103" s="80" t="s">
@@ -12092,7 +12107,7 @@
       </c>
       <c r="F103" s="80"/>
       <c r="G103" s="82" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H103" s="42" t="str">
         <f>IF(E103="","","予定")</f>
@@ -12193,10 +12208,10 @@
     <row r="105" spans="1:41" ht="12" customHeight="1">
       <c r="A105" s="72"/>
       <c r="B105" s="74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C105" s="76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D105" s="77"/>
       <c r="E105" s="80" t="s">
@@ -12204,7 +12219,7 @@
       </c>
       <c r="F105" s="80"/>
       <c r="G105" s="82" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H105" s="42" t="str">
         <f>IF(E105="","","予定")</f>
@@ -12305,7 +12320,7 @@
     <row r="107" spans="1:41" ht="12" customHeight="1">
       <c r="A107" s="72"/>
       <c r="B107" s="74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C107" s="76" t="s">
         <v>40</v>
@@ -12419,7 +12434,7 @@
         <v>4</v>
       </c>
       <c r="B109" s="76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C109" s="83"/>
       <c r="D109" s="77"/>
@@ -12530,7 +12545,7 @@
         <v>33</v>
       </c>
       <c r="C111" s="76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D111" s="77"/>
       <c r="E111" s="80" t="s">
@@ -12639,10 +12654,10 @@
     <row r="113" spans="1:41" ht="12" customHeight="1">
       <c r="A113" s="72"/>
       <c r="B113" s="74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C113" s="76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D113" s="77"/>
       <c r="E113" s="80" t="s">
@@ -12751,7 +12766,7 @@
     <row r="115" spans="1:41" ht="12" customHeight="1">
       <c r="A115" s="72"/>
       <c r="B115" s="74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C115" s="76" t="s">
         <v>47</v>
@@ -12863,7 +12878,7 @@
     <row r="117" spans="1:41" ht="12" customHeight="1">
       <c r="A117" s="72"/>
       <c r="B117" s="74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C117" s="76" t="s">
         <v>40</v>
@@ -12977,14 +12992,14 @@
         <v>5</v>
       </c>
       <c r="B119" s="76" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C119" s="83"/>
       <c r="D119" s="77"/>
       <c r="E119" s="85"/>
       <c r="F119" s="85"/>
       <c r="G119" s="87" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H119" s="23" t="str">
         <f>IF(E119="","","予定")</f>
@@ -13084,7 +13099,7 @@
         <v>33</v>
       </c>
       <c r="C121" s="76" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D121" s="77"/>
       <c r="E121" s="80" t="s">
@@ -13198,7 +13213,7 @@
         <v>45</v>
       </c>
       <c r="C123" s="76" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D123" s="77"/>
       <c r="E123" s="80" t="s">
@@ -13310,7 +13325,7 @@
         <v>39</v>
       </c>
       <c r="C125" s="76" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D125" s="77"/>
       <c r="E125" s="80" t="s">
@@ -13419,7 +13434,7 @@
     <row r="127" spans="1:41" ht="12" customHeight="1">
       <c r="A127" s="72"/>
       <c r="B127" s="74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C127" s="76" t="s">
         <v>40</v>
@@ -13430,7 +13445,7 @@
       </c>
       <c r="F127" s="80"/>
       <c r="G127" s="82" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H127" s="42" t="str">
         <f>IF(E127="","","予定")</f>
@@ -13533,14 +13548,14 @@
         <v>6</v>
       </c>
       <c r="B129" s="76" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C129" s="83"/>
       <c r="D129" s="77"/>
       <c r="E129" s="85"/>
       <c r="F129" s="85"/>
       <c r="G129" s="87" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H129" s="23" t="str">
         <f>IF(E129="","","予定")</f>
@@ -13640,7 +13655,7 @@
         <v>33</v>
       </c>
       <c r="C131" s="76" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D131" s="77"/>
       <c r="E131" s="80" t="s">
@@ -13752,7 +13767,7 @@
         <v>37</v>
       </c>
       <c r="C133" s="76" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D133" s="77"/>
       <c r="E133" s="80" t="s">
@@ -13864,7 +13879,7 @@
         <v>39</v>
       </c>
       <c r="C135" s="76" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D135" s="77"/>
       <c r="E135" s="80" t="s">
@@ -13975,7 +13990,7 @@
     <row r="137" spans="1:41" ht="12" customHeight="1">
       <c r="A137" s="72"/>
       <c r="B137" s="74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C137" s="76" t="s">
         <v>40</v>
@@ -13986,7 +14001,7 @@
       </c>
       <c r="F137" s="80"/>
       <c r="G137" s="82" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H137" s="42" t="str">
         <f>IF(E137="","","予定")</f>
@@ -14089,14 +14104,14 @@
         <v>7</v>
       </c>
       <c r="B139" s="76" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C139" s="83"/>
       <c r="D139" s="77"/>
       <c r="E139" s="85"/>
       <c r="F139" s="85"/>
       <c r="G139" s="87" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H139" s="23" t="str">
         <f>IF(E139="","","予定")</f>
@@ -14196,7 +14211,7 @@
         <v>33</v>
       </c>
       <c r="C141" s="76" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D141" s="77"/>
       <c r="E141" s="80" t="s">
@@ -14308,15 +14323,15 @@
         <v>37</v>
       </c>
       <c r="C143" s="76" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D143" s="77"/>
       <c r="E143" s="80" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F143" s="80"/>
       <c r="G143" s="82" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H143" s="42" t="str">
         <f>IF(E143="","","予定")</f>
@@ -14420,15 +14435,15 @@
         <v>39</v>
       </c>
       <c r="C145" s="76" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D145" s="77"/>
       <c r="E145" s="80" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F145" s="80"/>
       <c r="G145" s="82" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H145" s="42" t="str">
         <f>IF(E145="","","予定")</f>
@@ -14529,7 +14544,7 @@
     <row r="147" spans="1:41" ht="12" customHeight="1">
       <c r="A147" s="72"/>
       <c r="B147" s="74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C147" s="76" t="s">
         <v>40</v>
@@ -14540,7 +14555,7 @@
       </c>
       <c r="F147" s="80"/>
       <c r="G147" s="82" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H147" s="42" t="str">
         <f>IF(E147="","","予定")</f>
@@ -14643,7 +14658,7 @@
         <v>8</v>
       </c>
       <c r="B149" s="76" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C149" s="83"/>
       <c r="D149" s="77"/>
@@ -14745,18 +14760,18 @@
       <c r="AO150" s="48"/>
     </row>
     <row r="151" spans="1:41" ht="12" customHeight="1">
-      <c r="A151" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="B151" s="90"/>
-      <c r="C151" s="90"/>
-      <c r="D151" s="91"/>
-      <c r="E151" s="95" t="s">
+      <c r="A151" s="144" t="s">
+        <v>80</v>
+      </c>
+      <c r="B151" s="145"/>
+      <c r="C151" s="145"/>
+      <c r="D151" s="146"/>
+      <c r="E151" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="F151" s="95"/>
-      <c r="G151" s="139" t="s">
-        <v>68</v>
+      <c r="F151" s="147"/>
+      <c r="G151" s="101" t="s">
+        <v>69</v>
       </c>
       <c r="H151" s="20" t="s">
         <v>26</v>
@@ -14853,13 +14868,13 @@
       </c>
     </row>
     <row r="152" spans="1:41" ht="12" customHeight="1">
-      <c r="A152" s="92"/>
-      <c r="B152" s="93"/>
-      <c r="C152" s="93"/>
-      <c r="D152" s="94"/>
-      <c r="E152" s="96"/>
-      <c r="F152" s="96"/>
-      <c r="G152" s="140"/>
+      <c r="A152" s="115"/>
+      <c r="B152" s="116"/>
+      <c r="C152" s="116"/>
+      <c r="D152" s="117"/>
+      <c r="E152" s="136"/>
+      <c r="F152" s="136"/>
+      <c r="G152" s="102"/>
       <c r="H152" s="7" t="s">
         <v>27</v>
       </c>
@@ -15072,7 +15087,7 @@
       </c>
       <c r="D155" s="77"/>
       <c r="E155" s="80" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F155" s="80"/>
       <c r="G155" s="82" t="s">
@@ -15184,7 +15199,7 @@
       </c>
       <c r="D157" s="77"/>
       <c r="E157" s="80" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F157" s="80"/>
       <c r="G157" s="82" t="s">
@@ -15518,7 +15533,7 @@
       </c>
       <c r="D163" s="77"/>
       <c r="E163" s="80" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F163" s="80"/>
       <c r="G163" s="82" t="s">
@@ -15630,7 +15645,7 @@
       </c>
       <c r="D165" s="77"/>
       <c r="E165" s="80" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F165" s="80"/>
       <c r="G165" s="82" t="s">
@@ -15742,7 +15757,7 @@
       </c>
       <c r="D167" s="77"/>
       <c r="E167" s="80" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F167" s="80"/>
       <c r="G167" s="82" t="s">
@@ -15847,7 +15862,7 @@
     <row r="169" spans="1:41">
       <c r="A169" s="72"/>
       <c r="B169" s="74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C169" s="76" t="s">
         <v>40</v>
@@ -15858,7 +15873,7 @@
       </c>
       <c r="F169" s="80"/>
       <c r="G169" s="82" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H169" s="42" t="str">
         <f>IF(E169="","","予定")</f>
@@ -15961,7 +15976,7 @@
         <v>3</v>
       </c>
       <c r="B171" s="76" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C171" s="83"/>
       <c r="D171" s="77"/>
@@ -16072,11 +16087,11 @@
         <v>33</v>
       </c>
       <c r="C173" s="76" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D173" s="77"/>
       <c r="E173" s="80" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F173" s="80"/>
       <c r="G173" s="82" t="s">
@@ -16184,11 +16199,11 @@
         <v>37</v>
       </c>
       <c r="C175" s="76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D175" s="77"/>
       <c r="E175" s="80" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F175" s="80"/>
       <c r="G175" s="82" t="s">
@@ -16296,11 +16311,11 @@
         <v>39</v>
       </c>
       <c r="C177" s="76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D177" s="77"/>
       <c r="E177" s="80" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F177" s="80"/>
       <c r="G177" s="82" t="s">
@@ -16405,7 +16420,7 @@
     <row r="179" spans="1:41">
       <c r="A179" s="72"/>
       <c r="B179" s="74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C179" s="76" t="s">
         <v>40</v>
@@ -16416,7 +16431,7 @@
       </c>
       <c r="F179" s="80"/>
       <c r="G179" s="82" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H179" s="42" t="str">
         <f>IF(E179="","","予定")</f>
@@ -16519,7 +16534,7 @@
         <v>4</v>
       </c>
       <c r="B181" s="76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C181" s="83"/>
       <c r="D181" s="77"/>
@@ -16630,11 +16645,11 @@
         <v>33</v>
       </c>
       <c r="C183" s="76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D183" s="77"/>
       <c r="E183" s="80" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F183" s="80"/>
       <c r="G183" s="82" t="s">
@@ -16739,14 +16754,14 @@
     <row r="185" spans="1:41">
       <c r="A185" s="72"/>
       <c r="B185" s="74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C185" s="76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D185" s="77"/>
       <c r="E185" s="80" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F185" s="80"/>
       <c r="G185" s="82" t="s">
@@ -16851,14 +16866,14 @@
     <row r="187" spans="1:41">
       <c r="A187" s="72"/>
       <c r="B187" s="74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C187" s="76" t="s">
         <v>47</v>
       </c>
       <c r="D187" s="77"/>
       <c r="E187" s="80" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F187" s="80"/>
       <c r="G187" s="82" t="s">
@@ -16963,7 +16978,7 @@
     <row r="189" spans="1:41">
       <c r="A189" s="72"/>
       <c r="B189" s="74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C189" s="76" t="s">
         <v>40</v>
@@ -16974,7 +16989,7 @@
       </c>
       <c r="F189" s="80"/>
       <c r="G189" s="82" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H189" s="42" t="str">
         <f>IF(E189="","","予定")</f>
@@ -17077,14 +17092,14 @@
         <v>5</v>
       </c>
       <c r="B191" s="76" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C191" s="83"/>
       <c r="D191" s="77"/>
       <c r="E191" s="85"/>
       <c r="F191" s="85"/>
       <c r="G191" s="87" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H191" s="23" t="str">
         <f>IF(E191="","","予定")</f>
@@ -17184,11 +17199,11 @@
         <v>33</v>
       </c>
       <c r="C193" s="76" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D193" s="77"/>
       <c r="E193" s="80" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F193" s="80"/>
       <c r="G193" s="82" t="s">
@@ -17296,11 +17311,11 @@
         <v>45</v>
       </c>
       <c r="C195" s="76" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D195" s="77"/>
       <c r="E195" s="80" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F195" s="80"/>
       <c r="G195" s="82" t="s">
@@ -17408,11 +17423,11 @@
         <v>39</v>
       </c>
       <c r="C197" s="76" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D197" s="77"/>
       <c r="E197" s="80" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F197" s="80"/>
       <c r="G197" s="82" t="s">
@@ -17517,7 +17532,7 @@
     <row r="199" spans="1:41">
       <c r="A199" s="72"/>
       <c r="B199" s="74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C199" s="76" t="s">
         <v>40</v>
@@ -17528,7 +17543,7 @@
       </c>
       <c r="F199" s="80"/>
       <c r="G199" s="82" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H199" s="42" t="str">
         <f>IF(E199="","","予定")</f>
@@ -17631,14 +17646,14 @@
         <v>6</v>
       </c>
       <c r="B201" s="76" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C201" s="83"/>
       <c r="D201" s="77"/>
       <c r="E201" s="85"/>
       <c r="F201" s="85"/>
       <c r="G201" s="87" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H201" s="23" t="str">
         <f>IF(E201="","","予定")</f>
@@ -17738,7 +17753,7 @@
         <v>33</v>
       </c>
       <c r="C203" s="76" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D203" s="77"/>
       <c r="E203" s="80" t="s">
@@ -17850,7 +17865,7 @@
         <v>37</v>
       </c>
       <c r="C205" s="76" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D205" s="77"/>
       <c r="E205" s="80" t="s">
@@ -17962,7 +17977,7 @@
         <v>39</v>
       </c>
       <c r="C207" s="76" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D207" s="77"/>
       <c r="E207" s="80" t="s">
@@ -18071,7 +18086,7 @@
     <row r="209" spans="1:41">
       <c r="A209" s="72"/>
       <c r="B209" s="74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C209" s="76" t="s">
         <v>40</v>
@@ -18082,7 +18097,7 @@
       </c>
       <c r="F209" s="80"/>
       <c r="G209" s="82" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H209" s="42" t="str">
         <f>IF(E209="","","予定")</f>
@@ -18185,14 +18200,14 @@
         <v>7</v>
       </c>
       <c r="B211" s="76" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C211" s="83"/>
       <c r="D211" s="77"/>
       <c r="E211" s="85"/>
       <c r="F211" s="85"/>
       <c r="G211" s="87" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H211" s="23" t="str">
         <f>IF(E211="","","予定")</f>
@@ -18292,7 +18307,7 @@
         <v>33</v>
       </c>
       <c r="C213" s="76" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D213" s="77"/>
       <c r="E213" s="80" t="s">
@@ -18404,15 +18419,15 @@
         <v>37</v>
       </c>
       <c r="C215" s="76" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D215" s="77"/>
       <c r="E215" s="80" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F215" s="80"/>
       <c r="G215" s="82" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H215" s="42" t="str">
         <f>IF(E215="","","予定")</f>
@@ -18516,15 +18531,15 @@
         <v>39</v>
       </c>
       <c r="C217" s="76" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D217" s="77"/>
       <c r="E217" s="80" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F217" s="80"/>
       <c r="G217" s="82" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H217" s="42" t="str">
         <f>IF(E217="","","予定")</f>
@@ -18625,7 +18640,7 @@
     <row r="219" spans="1:41">
       <c r="A219" s="72"/>
       <c r="B219" s="74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C219" s="76" t="s">
         <v>40</v>
@@ -18636,7 +18651,7 @@
       </c>
       <c r="F219" s="80"/>
       <c r="G219" s="82" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H219" s="42" t="str">
         <f>IF(E219="","","予定")</f>
@@ -18739,7 +18754,7 @@
         <v>8</v>
       </c>
       <c r="B221" s="76" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C221" s="83"/>
       <c r="D221" s="77"/>
@@ -18841,10 +18856,10 @@
     <row r="223" spans="1:41" ht="12" customHeight="1">
       <c r="A223" s="72"/>
       <c r="B223" s="74" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C223" s="76" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D223" s="77"/>
       <c r="E223" s="80" t="s">
@@ -18956,7 +18971,7 @@
         <v>45</v>
       </c>
       <c r="C225" s="76" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D225" s="77"/>
       <c r="E225" s="80" t="s">
@@ -19069,6 +19084,654 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="672">
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="C219:D220"/>
+    <mergeCell ref="E219:E220"/>
+    <mergeCell ref="F219:F220"/>
+    <mergeCell ref="G219:G220"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="E213:E214"/>
+    <mergeCell ref="F213:F214"/>
+    <mergeCell ref="G213:G214"/>
+    <mergeCell ref="C215:D216"/>
+    <mergeCell ref="E215:E216"/>
+    <mergeCell ref="F215:F216"/>
+    <mergeCell ref="G215:G216"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="C217:D218"/>
+    <mergeCell ref="E217:E218"/>
+    <mergeCell ref="F217:F218"/>
+    <mergeCell ref="G217:G218"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="C209:D210"/>
+    <mergeCell ref="E209:E210"/>
+    <mergeCell ref="F209:F210"/>
+    <mergeCell ref="G209:G210"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="E211:E212"/>
+    <mergeCell ref="F211:F212"/>
+    <mergeCell ref="G211:G212"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="C205:D206"/>
+    <mergeCell ref="E205:E206"/>
+    <mergeCell ref="F205:F206"/>
+    <mergeCell ref="G205:G206"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="C207:D208"/>
+    <mergeCell ref="E207:E208"/>
+    <mergeCell ref="F207:F208"/>
+    <mergeCell ref="G207:G208"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="C199:D200"/>
+    <mergeCell ref="E199:E200"/>
+    <mergeCell ref="F199:F200"/>
+    <mergeCell ref="G199:G200"/>
+    <mergeCell ref="A203:A204"/>
+    <mergeCell ref="E203:E204"/>
+    <mergeCell ref="F203:F204"/>
+    <mergeCell ref="G203:G204"/>
+    <mergeCell ref="A195:A196"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="C195:D196"/>
+    <mergeCell ref="E195:E196"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="G195:G196"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="C197:D198"/>
+    <mergeCell ref="E197:E198"/>
+    <mergeCell ref="F197:F198"/>
+    <mergeCell ref="G197:G198"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="B191:D192"/>
+    <mergeCell ref="E191:E192"/>
+    <mergeCell ref="F191:F192"/>
+    <mergeCell ref="G191:G192"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="C193:D194"/>
+    <mergeCell ref="E193:E194"/>
+    <mergeCell ref="F193:F194"/>
+    <mergeCell ref="G193:G194"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="C187:D188"/>
+    <mergeCell ref="E187:E188"/>
+    <mergeCell ref="F187:F188"/>
+    <mergeCell ref="G187:G188"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="C189:D190"/>
+    <mergeCell ref="E189:E190"/>
+    <mergeCell ref="F189:F190"/>
+    <mergeCell ref="G189:G190"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="C183:D184"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="F183:F184"/>
+    <mergeCell ref="G183:G184"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="C185:D186"/>
+    <mergeCell ref="E185:E186"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="G185:G186"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="C179:D180"/>
+    <mergeCell ref="E179:E180"/>
+    <mergeCell ref="F179:F180"/>
+    <mergeCell ref="G179:G180"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:D182"/>
+    <mergeCell ref="E181:E182"/>
+    <mergeCell ref="F181:F182"/>
+    <mergeCell ref="G181:G182"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="C175:D176"/>
+    <mergeCell ref="E175:E176"/>
+    <mergeCell ref="F175:F176"/>
+    <mergeCell ref="G175:G176"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="C177:D178"/>
+    <mergeCell ref="E177:E178"/>
+    <mergeCell ref="F177:F178"/>
+    <mergeCell ref="G177:G178"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="B171:D172"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="G171:G172"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="C173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="G173:G174"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="C167:D168"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="C169:D170"/>
+    <mergeCell ref="E169:E170"/>
+    <mergeCell ref="F169:F170"/>
+    <mergeCell ref="G169:G170"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:D146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="C159:D160"/>
+    <mergeCell ref="B161:D162"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A151:D152"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="C155:D156"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="F153:F154"/>
+    <mergeCell ref="E153:E154"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:D138"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:D140"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:D134"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:D136"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="G165:G166"/>
+    <mergeCell ref="G159:G160"/>
+    <mergeCell ref="F161:F162"/>
+    <mergeCell ref="G161:G162"/>
+    <mergeCell ref="F163:F164"/>
+    <mergeCell ref="G163:G164"/>
+    <mergeCell ref="F165:F166"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="E163:E164"/>
+    <mergeCell ref="E161:E162"/>
+    <mergeCell ref="E159:E160"/>
+    <mergeCell ref="E165:E166"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:D164"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="C165:D166"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:D158"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:D48"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B37:D38"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:D18"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="G157:G158"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="B153:D154"/>
+    <mergeCell ref="G155:G156"/>
+    <mergeCell ref="G153:G154"/>
+    <mergeCell ref="F155:F156"/>
+    <mergeCell ref="E155:E156"/>
+    <mergeCell ref="F157:F158"/>
+    <mergeCell ref="E157:E158"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="G221:G222"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="C223:D224"/>
+    <mergeCell ref="E223:E224"/>
+    <mergeCell ref="F223:F224"/>
+    <mergeCell ref="G223:G224"/>
     <mergeCell ref="A225:A226"/>
     <mergeCell ref="B225:B226"/>
     <mergeCell ref="C225:D226"/>
@@ -19093,654 +19756,6 @@
     <mergeCell ref="C213:D214"/>
     <mergeCell ref="A221:A222"/>
     <mergeCell ref="B221:D222"/>
-    <mergeCell ref="E221:E222"/>
-    <mergeCell ref="F221:F222"/>
-    <mergeCell ref="G221:G222"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="C223:D224"/>
-    <mergeCell ref="E223:E224"/>
-    <mergeCell ref="F223:F224"/>
-    <mergeCell ref="G223:G224"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B149:D150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="G157:G158"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="B153:D154"/>
-    <mergeCell ref="G155:G156"/>
-    <mergeCell ref="G153:G154"/>
-    <mergeCell ref="F155:F156"/>
-    <mergeCell ref="E155:E156"/>
-    <mergeCell ref="F157:F158"/>
-    <mergeCell ref="E157:E158"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B37:D38"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:D18"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:D48"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C163:D164"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="C165:D166"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C157:D158"/>
-    <mergeCell ref="G165:G166"/>
-    <mergeCell ref="G159:G160"/>
-    <mergeCell ref="F161:F162"/>
-    <mergeCell ref="G161:G162"/>
-    <mergeCell ref="F163:F164"/>
-    <mergeCell ref="G163:G164"/>
-    <mergeCell ref="F165:F166"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="E163:E164"/>
-    <mergeCell ref="E161:E162"/>
-    <mergeCell ref="E159:E160"/>
-    <mergeCell ref="E165:E166"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:D130"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:D134"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:D136"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:D138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="G137:G138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:D140"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:D146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="C159:D160"/>
-    <mergeCell ref="B161:D162"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="A151:D152"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="C155:D156"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="F153:F154"/>
-    <mergeCell ref="E153:E154"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="C167:D168"/>
-    <mergeCell ref="E167:E168"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="G167:G168"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="C169:D170"/>
-    <mergeCell ref="E169:E170"/>
-    <mergeCell ref="F169:F170"/>
-    <mergeCell ref="G169:G170"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="B171:D172"/>
-    <mergeCell ref="E171:E172"/>
-    <mergeCell ref="F171:F172"/>
-    <mergeCell ref="G171:G172"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="C173:D174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="G173:G174"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="C175:D176"/>
-    <mergeCell ref="E175:E176"/>
-    <mergeCell ref="F175:F176"/>
-    <mergeCell ref="G175:G176"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="C177:D178"/>
-    <mergeCell ref="E177:E178"/>
-    <mergeCell ref="F177:F178"/>
-    <mergeCell ref="G177:G178"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="C179:D180"/>
-    <mergeCell ref="E179:E180"/>
-    <mergeCell ref="F179:F180"/>
-    <mergeCell ref="G179:G180"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:D182"/>
-    <mergeCell ref="E181:E182"/>
-    <mergeCell ref="F181:F182"/>
-    <mergeCell ref="G181:G182"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="C183:D184"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="F183:F184"/>
-    <mergeCell ref="G183:G184"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="C185:D186"/>
-    <mergeCell ref="E185:E186"/>
-    <mergeCell ref="F185:F186"/>
-    <mergeCell ref="G185:G186"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="C187:D188"/>
-    <mergeCell ref="E187:E188"/>
-    <mergeCell ref="F187:F188"/>
-    <mergeCell ref="G187:G188"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="C189:D190"/>
-    <mergeCell ref="E189:E190"/>
-    <mergeCell ref="F189:F190"/>
-    <mergeCell ref="G189:G190"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="B191:D192"/>
-    <mergeCell ref="E191:E192"/>
-    <mergeCell ref="F191:F192"/>
-    <mergeCell ref="G191:G192"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="C193:D194"/>
-    <mergeCell ref="E193:E194"/>
-    <mergeCell ref="F193:F194"/>
-    <mergeCell ref="G193:G194"/>
-    <mergeCell ref="A195:A196"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="C195:D196"/>
-    <mergeCell ref="E195:E196"/>
-    <mergeCell ref="F195:F196"/>
-    <mergeCell ref="G195:G196"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="C197:D198"/>
-    <mergeCell ref="E197:E198"/>
-    <mergeCell ref="F197:F198"/>
-    <mergeCell ref="G197:G198"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="C199:D200"/>
-    <mergeCell ref="E199:E200"/>
-    <mergeCell ref="F199:F200"/>
-    <mergeCell ref="G199:G200"/>
-    <mergeCell ref="A203:A204"/>
-    <mergeCell ref="E203:E204"/>
-    <mergeCell ref="F203:F204"/>
-    <mergeCell ref="G203:G204"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="C205:D206"/>
-    <mergeCell ref="E205:E206"/>
-    <mergeCell ref="F205:F206"/>
-    <mergeCell ref="G205:G206"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="B207:B208"/>
-    <mergeCell ref="C207:D208"/>
-    <mergeCell ref="E207:E208"/>
-    <mergeCell ref="F207:F208"/>
-    <mergeCell ref="G207:G208"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="B209:B210"/>
-    <mergeCell ref="C209:D210"/>
-    <mergeCell ref="E209:E210"/>
-    <mergeCell ref="F209:F210"/>
-    <mergeCell ref="G209:G210"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="E211:E212"/>
-    <mergeCell ref="F211:F212"/>
-    <mergeCell ref="G211:G212"/>
-    <mergeCell ref="E215:E216"/>
-    <mergeCell ref="F215:F216"/>
-    <mergeCell ref="G215:G216"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="C217:D218"/>
-    <mergeCell ref="E217:E218"/>
-    <mergeCell ref="F217:F218"/>
-    <mergeCell ref="G217:G218"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="C219:D220"/>
-    <mergeCell ref="E219:E220"/>
-    <mergeCell ref="F219:F220"/>
-    <mergeCell ref="G219:G220"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A215:A216"/>
-    <mergeCell ref="B215:B216"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="E213:E214"/>
-    <mergeCell ref="F213:F214"/>
-    <mergeCell ref="G213:G214"/>
-    <mergeCell ref="C215:D216"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L37:W42 L47:W52 L55:W56">
@@ -22438,6 +22453,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -22446,20 +22467,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F66ED76-1AA6-47C4-ACB3-55436DA3AAF4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}"/>
 </file>
--- a/00_プロジェクト管理/WBSガントチャート_07.xlsx
+++ b/00_プロジェクト管理/WBSガントチャート_07.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22907"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1247" documentId="13_ncr:1_{CF2DAAD7-85C2-4067-B19B-C90FB7DE682B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1F3C5886-E1C7-4884-9A35-54068ECE8F74}"/>
+  <xr:revisionPtr revIDLastSave="1249" documentId="13_ncr:1_{CF2DAAD7-85C2-4067-B19B-C90FB7DE682B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5AF38EA7-8847-44FC-876B-24B1BD606A59}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="10350" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <definedName name="Z_EDE81CA1_484F_45F9_B8CA_0958EC6CFEE2_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$166</definedName>
     <definedName name="Z_F55870F9_E82A_4267_AED3_94CF07AEF80F_.wvu.FilterData" localSheetId="0">WBSガントチャート!$A$2:$K$166</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1612,26 +1612,47 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1645,22 +1666,43 @@
     <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1669,61 +1711,22 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1744,49 +1747,46 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6626,214 +6626,214 @@
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="F29" sqref="F29:F30"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
   <cols>
     <col min="1" max="1" width="10" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="2.28515625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="38.85546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="2.75" style="12" customWidth="1"/>
+    <col min="3" max="3" width="2.25" style="12" customWidth="1"/>
+    <col min="4" max="4" width="44.125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="38.875" style="12" customWidth="1"/>
     <col min="8" max="8" width="8" style="13" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="13" customWidth="1"/>
+    <col min="10" max="10" width="7.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.25" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="14.25" customHeight="1">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="103" t="s">
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="121" t="s">
+      <c r="G1" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="I1" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="J1" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="118" t="s">
+      <c r="K1" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="96">
+      <c r="L1" s="103">
         <v>43984</v>
       </c>
-      <c r="M1" s="97"/>
-      <c r="N1" s="96">
+      <c r="M1" s="104"/>
+      <c r="N1" s="103">
         <v>43985</v>
       </c>
-      <c r="O1" s="97"/>
-      <c r="P1" s="96">
+      <c r="O1" s="104"/>
+      <c r="P1" s="103">
         <v>43986</v>
       </c>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="96">
+      <c r="Q1" s="104"/>
+      <c r="R1" s="103">
         <v>43987</v>
       </c>
-      <c r="S1" s="97"/>
-      <c r="T1" s="96">
+      <c r="S1" s="104"/>
+      <c r="T1" s="103">
         <v>43990</v>
       </c>
-      <c r="U1" s="97"/>
-      <c r="V1" s="96">
+      <c r="U1" s="104"/>
+      <c r="V1" s="103">
         <v>43991</v>
       </c>
-      <c r="W1" s="97"/>
-      <c r="X1" s="96">
+      <c r="W1" s="104"/>
+      <c r="X1" s="103">
         <v>43992</v>
       </c>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="96">
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="103">
         <v>43993</v>
       </c>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="96">
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="103">
         <v>43994</v>
       </c>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="96">
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="103">
         <v>43997</v>
       </c>
-      <c r="AE1" s="97"/>
+      <c r="AE1" s="104"/>
     </row>
     <row r="2" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A2" s="125"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="137" t="s">
+      <c r="A2" s="124"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="138"/>
-      <c r="N2" s="98" t="s">
+      <c r="M2" s="118"/>
+      <c r="N2" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="99"/>
-      <c r="P2" s="98" t="s">
+      <c r="O2" s="106"/>
+      <c r="P2" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="98" t="s">
+      <c r="Q2" s="106"/>
+      <c r="R2" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="99"/>
-      <c r="T2" s="98" t="s">
+      <c r="S2" s="106"/>
+      <c r="T2" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="99"/>
-      <c r="V2" s="98" t="s">
+      <c r="U2" s="106"/>
+      <c r="V2" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="99"/>
-      <c r="X2" s="98" t="s">
+      <c r="W2" s="106"/>
+      <c r="X2" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="98" t="s">
+      <c r="Y2" s="106"/>
+      <c r="Z2" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="99"/>
-      <c r="AB2" s="98" t="s">
+      <c r="AA2" s="106"/>
+      <c r="AB2" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="98" t="s">
+      <c r="AC2" s="106"/>
+      <c r="AD2" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="AE2" s="99"/>
+      <c r="AE2" s="106"/>
     </row>
     <row r="3" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A3" s="125"/>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="141" t="s">
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="140"/>
-      <c r="N3" s="139" t="s">
+      <c r="M3" s="108"/>
+      <c r="N3" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="140"/>
-      <c r="P3" s="139" t="s">
+      <c r="O3" s="108"/>
+      <c r="P3" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="140"/>
-      <c r="R3" s="100" t="s">
+      <c r="Q3" s="108"/>
+      <c r="R3" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100" t="s">
+      <c r="S3" s="102"/>
+      <c r="T3" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="100"/>
-      <c r="V3" s="100" t="s">
+      <c r="U3" s="102"/>
+      <c r="V3" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="100"/>
-      <c r="X3" s="141" t="s">
+      <c r="W3" s="102"/>
+      <c r="X3" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="140"/>
-      <c r="Z3" s="139" t="s">
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="139" t="s">
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="AC3" s="140"/>
-      <c r="AD3" s="100" t="s">
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="AE3" s="100"/>
+      <c r="AE3" s="102"/>
     </row>
     <row r="4" spans="1:31" ht="13.5" customHeight="1" thickBot="1">
       <c r="A4" s="126"/>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="120"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="147"/>
       <c r="L4" s="2" t="s">
         <v>23</v>
       </c>
@@ -6896,15 +6896,15 @@
       </c>
     </row>
     <row r="5" spans="1:31" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1">
-      <c r="A5" s="127" t="s">
+      <c r="A5" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="108"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="143"/>
       <c r="H5" s="16" t="s">
         <v>26</v>
       </c>
@@ -6996,13 +6996,13 @@
       </c>
     </row>
     <row r="6" spans="1:31" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="130"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="109"/>
+      <c r="A6" s="131"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="144"/>
       <c r="H6" s="18" t="s">
         <v>27</v>
       </c>
@@ -7018,7 +7018,7 @@
       </c>
       <c r="M6" s="27">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N6" s="27">
         <f t="shared" si="1"/>
@@ -7094,15 +7094,15 @@
       </c>
     </row>
     <row r="7" spans="1:31" ht="12" customHeight="1" thickTop="1">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="133"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="98"/>
       <c r="H7" s="4" t="s">
         <v>26</v>
       </c>
@@ -7196,13 +7196,13 @@
       </c>
     </row>
     <row r="8" spans="1:31" ht="12" customHeight="1">
-      <c r="A8" s="115"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="134"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="99"/>
       <c r="H8" s="6" t="s">
         <v>27</v>
       </c>
@@ -7218,7 +7218,7 @@
       </c>
       <c r="M8" s="58">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N8" s="58">
         <f t="shared" si="4"/>
@@ -7976,7 +7976,7 @@
         <v>30</v>
       </c>
       <c r="F23" s="80" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G23" s="82" t="s">
         <v>35</v>
@@ -8132,10 +8132,12 @@
       <c r="J26" s="23"/>
       <c r="K26" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="45"/>
-      <c r="M26" s="46"/>
+      <c r="M26" s="46">
+        <v>1</v>
+      </c>
       <c r="N26" s="46"/>
       <c r="O26" s="46"/>
       <c r="P26" s="46"/>
@@ -8618,7 +8620,7 @@
       <c r="AE36" s="54"/>
     </row>
     <row r="37" spans="1:41" ht="12" customHeight="1">
-      <c r="A37" s="89">
+      <c r="A37" s="114">
         <v>4</v>
       </c>
       <c r="B37" s="76" t="s">
@@ -8667,7 +8669,7 @@
       <c r="AE37" s="53"/>
     </row>
     <row r="38" spans="1:41" ht="12" customHeight="1">
-      <c r="A38" s="90"/>
+      <c r="A38" s="115"/>
       <c r="B38" s="78"/>
       <c r="C38" s="84"/>
       <c r="D38" s="79"/>
@@ -8706,19 +8708,19 @@
       <c r="AE38" s="54"/>
     </row>
     <row r="39" spans="1:41" ht="12" customHeight="1">
-      <c r="A39" s="89"/>
-      <c r="B39" s="91" t="s">
+      <c r="A39" s="114"/>
+      <c r="B39" s="116" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="76" t="s">
         <v>53</v>
       </c>
       <c r="D39" s="77"/>
-      <c r="E39" s="93" t="s">
+      <c r="E39" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="93"/>
-      <c r="G39" s="95" t="s">
+      <c r="F39" s="112"/>
+      <c r="G39" s="110" t="s">
         <v>35</v>
       </c>
       <c r="H39" s="8" t="str">
@@ -8759,13 +8761,13 @@
       <c r="AE39" s="53"/>
     </row>
     <row r="40" spans="1:41" ht="12" customHeight="1">
-      <c r="A40" s="90"/>
-      <c r="B40" s="92"/>
+      <c r="A40" s="115"/>
+      <c r="B40" s="111"/>
       <c r="C40" s="78"/>
       <c r="D40" s="79"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="92"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="111"/>
       <c r="H40" s="71" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -8798,19 +8800,19 @@
       <c r="AE40" s="54"/>
     </row>
     <row r="41" spans="1:41" ht="12" customHeight="1">
-      <c r="A41" s="89"/>
-      <c r="B41" s="91" t="s">
+      <c r="A41" s="114"/>
+      <c r="B41" s="116" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="76" t="s">
         <v>54</v>
       </c>
       <c r="D41" s="77"/>
-      <c r="E41" s="93" t="s">
+      <c r="E41" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="93"/>
-      <c r="G41" s="95" t="s">
+      <c r="F41" s="112"/>
+      <c r="G41" s="110" t="s">
         <v>35</v>
       </c>
       <c r="H41" s="8" t="str">
@@ -8851,13 +8853,13 @@
       <c r="AE41" s="53"/>
     </row>
     <row r="42" spans="1:41" ht="12" customHeight="1">
-      <c r="A42" s="90"/>
-      <c r="B42" s="92"/>
+      <c r="A42" s="115"/>
+      <c r="B42" s="111"/>
       <c r="C42" s="78"/>
       <c r="D42" s="79"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="94"/>
-      <c r="G42" s="92"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="113"/>
+      <c r="G42" s="111"/>
       <c r="H42" s="71" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -9094,7 +9096,7 @@
       <c r="AO46" s="48"/>
     </row>
     <row r="47" spans="1:41" ht="12" customHeight="1">
-      <c r="A47" s="89">
+      <c r="A47" s="114">
         <v>5</v>
       </c>
       <c r="B47" s="76" t="s">
@@ -9137,7 +9139,7 @@
       <c r="AE47" s="53"/>
     </row>
     <row r="48" spans="1:41" ht="12" customHeight="1">
-      <c r="A48" s="90"/>
+      <c r="A48" s="115"/>
       <c r="B48" s="78"/>
       <c r="C48" s="84"/>
       <c r="D48" s="79"/>
@@ -9288,19 +9290,19 @@
       <c r="AO50" s="48"/>
     </row>
     <row r="51" spans="1:41" ht="12" customHeight="1">
-      <c r="A51" s="89"/>
-      <c r="B51" s="91" t="s">
+      <c r="A51" s="114"/>
+      <c r="B51" s="116" t="s">
         <v>45</v>
       </c>
       <c r="C51" s="76" t="s">
         <v>62</v>
       </c>
       <c r="D51" s="77"/>
-      <c r="E51" s="93" t="s">
+      <c r="E51" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="F51" s="93"/>
-      <c r="G51" s="95" t="s">
+      <c r="F51" s="112"/>
+      <c r="G51" s="110" t="s">
         <v>35</v>
       </c>
       <c r="H51" s="8" t="str">
@@ -9341,13 +9343,13 @@
       <c r="AE51" s="53"/>
     </row>
     <row r="52" spans="1:41" ht="12" customHeight="1">
-      <c r="A52" s="90"/>
-      <c r="B52" s="92"/>
+      <c r="A52" s="115"/>
+      <c r="B52" s="111"/>
       <c r="C52" s="78"/>
       <c r="D52" s="79"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="92"/>
+      <c r="E52" s="113"/>
+      <c r="F52" s="113"/>
+      <c r="G52" s="111"/>
       <c r="H52" s="71" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -9492,19 +9494,19 @@
       <c r="AO54" s="48"/>
     </row>
     <row r="55" spans="1:41" ht="12" customHeight="1">
-      <c r="A55" s="89"/>
-      <c r="B55" s="91" t="s">
+      <c r="A55" s="114"/>
+      <c r="B55" s="116" t="s">
         <v>55</v>
       </c>
       <c r="C55" s="76" t="s">
         <v>40</v>
       </c>
       <c r="D55" s="77"/>
-      <c r="E55" s="93" t="s">
+      <c r="E55" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="F55" s="93"/>
-      <c r="G55" s="95" t="s">
+      <c r="F55" s="112"/>
+      <c r="G55" s="110" t="s">
         <v>64</v>
       </c>
       <c r="H55" s="8" t="str">
@@ -9544,13 +9546,13 @@
       <c r="AE55" s="53"/>
     </row>
     <row r="56" spans="1:41" ht="12" customHeight="1">
-      <c r="A56" s="90"/>
-      <c r="B56" s="92"/>
+      <c r="A56" s="115"/>
+      <c r="B56" s="111"/>
       <c r="C56" s="78"/>
       <c r="D56" s="79"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="94"/>
-      <c r="G56" s="92"/>
+      <c r="E56" s="113"/>
+      <c r="F56" s="113"/>
+      <c r="G56" s="111"/>
       <c r="H56" s="71" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -9583,7 +9585,7 @@
       <c r="AE56" s="54"/>
     </row>
     <row r="57" spans="1:41" ht="12" customHeight="1">
-      <c r="A57" s="89">
+      <c r="A57" s="114">
         <v>6</v>
       </c>
       <c r="B57" s="76" t="s">
@@ -9626,7 +9628,7 @@
       <c r="AE57" s="53"/>
     </row>
     <row r="58" spans="1:41" ht="12" customHeight="1">
-      <c r="A58" s="90"/>
+      <c r="A58" s="115"/>
       <c r="B58" s="78"/>
       <c r="C58" s="84"/>
       <c r="D58" s="79"/>
@@ -9665,19 +9667,19 @@
       <c r="AE58" s="54"/>
     </row>
     <row r="59" spans="1:41" ht="12" customHeight="1">
-      <c r="A59" s="89"/>
-      <c r="B59" s="91" t="s">
+      <c r="A59" s="114"/>
+      <c r="B59" s="116" t="s">
         <v>33</v>
       </c>
       <c r="C59" s="76" t="s">
         <v>66</v>
       </c>
       <c r="D59" s="77"/>
-      <c r="E59" s="93" t="s">
+      <c r="E59" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="F59" s="93"/>
-      <c r="G59" s="95" t="s">
+      <c r="F59" s="112"/>
+      <c r="G59" s="110" t="s">
         <v>35</v>
       </c>
       <c r="H59" s="8" t="str">
@@ -9718,13 +9720,13 @@
       <c r="AE59" s="53"/>
     </row>
     <row r="60" spans="1:41" ht="12" customHeight="1">
-      <c r="A60" s="90"/>
-      <c r="B60" s="92"/>
+      <c r="A60" s="115"/>
+      <c r="B60" s="111"/>
       <c r="C60" s="78"/>
       <c r="D60" s="79"/>
-      <c r="E60" s="94"/>
-      <c r="F60" s="94"/>
-      <c r="G60" s="92"/>
+      <c r="E60" s="113"/>
+      <c r="F60" s="113"/>
+      <c r="G60" s="111"/>
       <c r="H60" s="71" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -9869,18 +9871,18 @@
       <c r="AO62" s="48"/>
     </row>
     <row r="63" spans="1:41" ht="12" customHeight="1">
-      <c r="A63" s="89"/>
-      <c r="B63" s="91" t="s">
+      <c r="A63" s="114"/>
+      <c r="B63" s="116" t="s">
         <v>39</v>
       </c>
       <c r="C63" s="76" t="s">
         <v>68</v>
       </c>
       <c r="D63" s="77"/>
-      <c r="E63" s="93" t="s">
+      <c r="E63" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="F63" s="93"/>
+      <c r="F63" s="112"/>
       <c r="G63" s="82" t="s">
         <v>35</v>
       </c>
@@ -9922,12 +9924,12 @@
       <c r="AE63" s="53"/>
     </row>
     <row r="64" spans="1:41" ht="12" customHeight="1">
-      <c r="A64" s="90"/>
-      <c r="B64" s="92"/>
+      <c r="A64" s="115"/>
+      <c r="B64" s="111"/>
       <c r="C64" s="78"/>
       <c r="D64" s="79"/>
-      <c r="E64" s="94"/>
-      <c r="F64" s="94"/>
+      <c r="E64" s="113"/>
+      <c r="F64" s="113"/>
       <c r="G64" s="75"/>
       <c r="H64" s="71" t="str">
         <f>IF(E63="","","実績")</f>
@@ -10667,15 +10669,15 @@
       <c r="AO78" s="48"/>
     </row>
     <row r="79" spans="1:41" ht="12" customHeight="1" thickTop="1">
-      <c r="A79" s="112" t="s">
+      <c r="A79" s="136" t="s">
         <v>75</v>
       </c>
-      <c r="B79" s="113"/>
-      <c r="C79" s="113"/>
-      <c r="D79" s="114"/>
-      <c r="E79" s="135"/>
-      <c r="F79" s="135"/>
-      <c r="G79" s="133"/>
+      <c r="B79" s="137"/>
+      <c r="C79" s="137"/>
+      <c r="D79" s="138"/>
+      <c r="E79" s="97"/>
+      <c r="F79" s="97"/>
+      <c r="G79" s="98"/>
       <c r="H79" s="4" t="s">
         <v>26</v>
       </c>
@@ -10764,13 +10766,13 @@
       <c r="AO79" s="48"/>
     </row>
     <row r="80" spans="1:41" ht="12" customHeight="1">
-      <c r="A80" s="115"/>
-      <c r="B80" s="116"/>
-      <c r="C80" s="116"/>
-      <c r="D80" s="117"/>
-      <c r="E80" s="136"/>
-      <c r="F80" s="136"/>
-      <c r="G80" s="134"/>
+      <c r="A80" s="92"/>
+      <c r="B80" s="93"/>
+      <c r="C80" s="93"/>
+      <c r="D80" s="94"/>
+      <c r="E80" s="96"/>
+      <c r="F80" s="96"/>
+      <c r="G80" s="99"/>
       <c r="H80" s="6" t="s">
         <v>27</v>
       </c>
@@ -10883,7 +10885,7 @@
       <c r="E81" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="F81" s="142"/>
+      <c r="F81" s="100"/>
       <c r="G81" s="87" t="s">
         <v>32</v>
       </c>
@@ -10938,7 +10940,7 @@
       <c r="C82" s="84"/>
       <c r="D82" s="79"/>
       <c r="E82" s="86"/>
-      <c r="F82" s="143"/>
+      <c r="F82" s="101"/>
       <c r="G82" s="88"/>
       <c r="H82" s="24" t="str">
         <f>IF(E81="","","実績")</f>
@@ -14760,17 +14762,17 @@
       <c r="AO150" s="48"/>
     </row>
     <row r="151" spans="1:41" ht="12" customHeight="1">
-      <c r="A151" s="144" t="s">
+      <c r="A151" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="B151" s="145"/>
-      <c r="C151" s="145"/>
-      <c r="D151" s="146"/>
-      <c r="E151" s="147" t="s">
+      <c r="B151" s="90"/>
+      <c r="C151" s="90"/>
+      <c r="D151" s="91"/>
+      <c r="E151" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="F151" s="147"/>
-      <c r="G151" s="101" t="s">
+      <c r="F151" s="95"/>
+      <c r="G151" s="139" t="s">
         <v>69</v>
       </c>
       <c r="H151" s="20" t="s">
@@ -14868,13 +14870,13 @@
       </c>
     </row>
     <row r="152" spans="1:41" ht="12" customHeight="1">
-      <c r="A152" s="115"/>
-      <c r="B152" s="116"/>
-      <c r="C152" s="116"/>
-      <c r="D152" s="117"/>
-      <c r="E152" s="136"/>
-      <c r="F152" s="136"/>
-      <c r="G152" s="102"/>
+      <c r="A152" s="92"/>
+      <c r="B152" s="93"/>
+      <c r="C152" s="93"/>
+      <c r="D152" s="94"/>
+      <c r="E152" s="96"/>
+      <c r="F152" s="96"/>
+      <c r="G152" s="140"/>
       <c r="H152" s="7" t="s">
         <v>27</v>
       </c>
@@ -19084,6 +19086,654 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="672">
+    <mergeCell ref="A225:A226"/>
+    <mergeCell ref="B225:B226"/>
+    <mergeCell ref="C225:D226"/>
+    <mergeCell ref="E225:E226"/>
+    <mergeCell ref="F225:F226"/>
+    <mergeCell ref="G225:G226"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:D148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="B201:D202"/>
+    <mergeCell ref="E201:E202"/>
+    <mergeCell ref="F201:F202"/>
+    <mergeCell ref="G201:G202"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="C203:D204"/>
+    <mergeCell ref="B211:D212"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="C213:D214"/>
+    <mergeCell ref="A221:A222"/>
+    <mergeCell ref="B221:D222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="G221:G222"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="C223:D224"/>
+    <mergeCell ref="E223:E224"/>
+    <mergeCell ref="F223:F224"/>
+    <mergeCell ref="G223:G224"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="G157:G158"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="B153:D154"/>
+    <mergeCell ref="G155:G156"/>
+    <mergeCell ref="G153:G154"/>
+    <mergeCell ref="F155:F156"/>
+    <mergeCell ref="E155:E156"/>
+    <mergeCell ref="F157:F158"/>
+    <mergeCell ref="E157:E158"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B37:D38"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:D18"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:D48"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:D164"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="C165:D166"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:D158"/>
+    <mergeCell ref="G165:G166"/>
+    <mergeCell ref="G159:G160"/>
+    <mergeCell ref="F161:F162"/>
+    <mergeCell ref="G161:G162"/>
+    <mergeCell ref="F163:F164"/>
+    <mergeCell ref="G163:G164"/>
+    <mergeCell ref="F165:F166"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="E163:E164"/>
+    <mergeCell ref="E161:E162"/>
+    <mergeCell ref="E159:E160"/>
+    <mergeCell ref="E165:E166"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:D134"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:D136"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:D138"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:D140"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:D146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="C159:D160"/>
+    <mergeCell ref="B161:D162"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A151:D152"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="C155:D156"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="F153:F154"/>
+    <mergeCell ref="E153:E154"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="C167:D168"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="C169:D170"/>
+    <mergeCell ref="E169:E170"/>
+    <mergeCell ref="F169:F170"/>
+    <mergeCell ref="G169:G170"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="B171:D172"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="G171:G172"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="C173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="G173:G174"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="C175:D176"/>
+    <mergeCell ref="E175:E176"/>
+    <mergeCell ref="F175:F176"/>
+    <mergeCell ref="G175:G176"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="C177:D178"/>
+    <mergeCell ref="E177:E178"/>
+    <mergeCell ref="F177:F178"/>
+    <mergeCell ref="G177:G178"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="C179:D180"/>
+    <mergeCell ref="E179:E180"/>
+    <mergeCell ref="F179:F180"/>
+    <mergeCell ref="G179:G180"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:D182"/>
+    <mergeCell ref="E181:E182"/>
+    <mergeCell ref="F181:F182"/>
+    <mergeCell ref="G181:G182"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="C183:D184"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="F183:F184"/>
+    <mergeCell ref="G183:G184"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="C185:D186"/>
+    <mergeCell ref="E185:E186"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="G185:G186"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="C187:D188"/>
+    <mergeCell ref="E187:E188"/>
+    <mergeCell ref="F187:F188"/>
+    <mergeCell ref="G187:G188"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="C189:D190"/>
+    <mergeCell ref="E189:E190"/>
+    <mergeCell ref="F189:F190"/>
+    <mergeCell ref="G189:G190"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="B191:D192"/>
+    <mergeCell ref="E191:E192"/>
+    <mergeCell ref="F191:F192"/>
+    <mergeCell ref="G191:G192"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="C193:D194"/>
+    <mergeCell ref="E193:E194"/>
+    <mergeCell ref="F193:F194"/>
+    <mergeCell ref="G193:G194"/>
+    <mergeCell ref="A195:A196"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="C195:D196"/>
+    <mergeCell ref="E195:E196"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="G195:G196"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="C197:D198"/>
+    <mergeCell ref="E197:E198"/>
+    <mergeCell ref="F197:F198"/>
+    <mergeCell ref="G197:G198"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="C199:D200"/>
+    <mergeCell ref="E199:E200"/>
+    <mergeCell ref="F199:F200"/>
+    <mergeCell ref="G199:G200"/>
+    <mergeCell ref="A203:A204"/>
+    <mergeCell ref="E203:E204"/>
+    <mergeCell ref="F203:F204"/>
+    <mergeCell ref="G203:G204"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="C205:D206"/>
+    <mergeCell ref="E205:E206"/>
+    <mergeCell ref="F205:F206"/>
+    <mergeCell ref="G205:G206"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="C207:D208"/>
+    <mergeCell ref="E207:E208"/>
+    <mergeCell ref="F207:F208"/>
+    <mergeCell ref="G207:G208"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="C209:D210"/>
+    <mergeCell ref="E209:E210"/>
+    <mergeCell ref="F209:F210"/>
+    <mergeCell ref="G209:G210"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="E211:E212"/>
+    <mergeCell ref="F211:F212"/>
+    <mergeCell ref="G211:G212"/>
+    <mergeCell ref="E215:E216"/>
+    <mergeCell ref="F215:F216"/>
+    <mergeCell ref="G215:G216"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="C217:D218"/>
+    <mergeCell ref="E217:E218"/>
+    <mergeCell ref="F217:F218"/>
+    <mergeCell ref="G217:G218"/>
     <mergeCell ref="A219:A220"/>
     <mergeCell ref="B219:B220"/>
     <mergeCell ref="C219:D220"/>
@@ -19108,654 +19758,6 @@
     <mergeCell ref="F213:F214"/>
     <mergeCell ref="G213:G214"/>
     <mergeCell ref="C215:D216"/>
-    <mergeCell ref="E215:E216"/>
-    <mergeCell ref="F215:F216"/>
-    <mergeCell ref="G215:G216"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="C217:D218"/>
-    <mergeCell ref="E217:E218"/>
-    <mergeCell ref="F217:F218"/>
-    <mergeCell ref="G217:G218"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="B209:B210"/>
-    <mergeCell ref="C209:D210"/>
-    <mergeCell ref="E209:E210"/>
-    <mergeCell ref="F209:F210"/>
-    <mergeCell ref="G209:G210"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="E211:E212"/>
-    <mergeCell ref="F211:F212"/>
-    <mergeCell ref="G211:G212"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="C205:D206"/>
-    <mergeCell ref="E205:E206"/>
-    <mergeCell ref="F205:F206"/>
-    <mergeCell ref="G205:G206"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="B207:B208"/>
-    <mergeCell ref="C207:D208"/>
-    <mergeCell ref="E207:E208"/>
-    <mergeCell ref="F207:F208"/>
-    <mergeCell ref="G207:G208"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="C199:D200"/>
-    <mergeCell ref="E199:E200"/>
-    <mergeCell ref="F199:F200"/>
-    <mergeCell ref="G199:G200"/>
-    <mergeCell ref="A203:A204"/>
-    <mergeCell ref="E203:E204"/>
-    <mergeCell ref="F203:F204"/>
-    <mergeCell ref="G203:G204"/>
-    <mergeCell ref="A195:A196"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="C195:D196"/>
-    <mergeCell ref="E195:E196"/>
-    <mergeCell ref="F195:F196"/>
-    <mergeCell ref="G195:G196"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="C197:D198"/>
-    <mergeCell ref="E197:E198"/>
-    <mergeCell ref="F197:F198"/>
-    <mergeCell ref="G197:G198"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="B191:D192"/>
-    <mergeCell ref="E191:E192"/>
-    <mergeCell ref="F191:F192"/>
-    <mergeCell ref="G191:G192"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="C193:D194"/>
-    <mergeCell ref="E193:E194"/>
-    <mergeCell ref="F193:F194"/>
-    <mergeCell ref="G193:G194"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="C187:D188"/>
-    <mergeCell ref="E187:E188"/>
-    <mergeCell ref="F187:F188"/>
-    <mergeCell ref="G187:G188"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="C189:D190"/>
-    <mergeCell ref="E189:E190"/>
-    <mergeCell ref="F189:F190"/>
-    <mergeCell ref="G189:G190"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="C183:D184"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="F183:F184"/>
-    <mergeCell ref="G183:G184"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="C185:D186"/>
-    <mergeCell ref="E185:E186"/>
-    <mergeCell ref="F185:F186"/>
-    <mergeCell ref="G185:G186"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="C179:D180"/>
-    <mergeCell ref="E179:E180"/>
-    <mergeCell ref="F179:F180"/>
-    <mergeCell ref="G179:G180"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:D182"/>
-    <mergeCell ref="E181:E182"/>
-    <mergeCell ref="F181:F182"/>
-    <mergeCell ref="G181:G182"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="C175:D176"/>
-    <mergeCell ref="E175:E176"/>
-    <mergeCell ref="F175:F176"/>
-    <mergeCell ref="G175:G176"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="C177:D178"/>
-    <mergeCell ref="E177:E178"/>
-    <mergeCell ref="F177:F178"/>
-    <mergeCell ref="G177:G178"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="B171:D172"/>
-    <mergeCell ref="E171:E172"/>
-    <mergeCell ref="F171:F172"/>
-    <mergeCell ref="G171:G172"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="C173:D174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="G173:G174"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="C167:D168"/>
-    <mergeCell ref="E167:E168"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="G167:G168"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="C169:D170"/>
-    <mergeCell ref="E169:E170"/>
-    <mergeCell ref="F169:F170"/>
-    <mergeCell ref="G169:G170"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:D146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="C159:D160"/>
-    <mergeCell ref="B161:D162"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="A151:D152"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="C155:D156"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="F153:F154"/>
-    <mergeCell ref="E153:E154"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:D138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="G137:G138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:D140"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:D134"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:D136"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:D130"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="G165:G166"/>
-    <mergeCell ref="G159:G160"/>
-    <mergeCell ref="F161:F162"/>
-    <mergeCell ref="G161:G162"/>
-    <mergeCell ref="F163:F164"/>
-    <mergeCell ref="G163:G164"/>
-    <mergeCell ref="F165:F166"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="E163:E164"/>
-    <mergeCell ref="E161:E162"/>
-    <mergeCell ref="E159:E160"/>
-    <mergeCell ref="E165:E166"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C163:D164"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="C165:D166"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C157:D158"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:D48"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B37:D38"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:D18"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="G157:G158"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="B153:D154"/>
-    <mergeCell ref="G155:G156"/>
-    <mergeCell ref="G153:G154"/>
-    <mergeCell ref="F155:F156"/>
-    <mergeCell ref="E155:E156"/>
-    <mergeCell ref="F157:F158"/>
-    <mergeCell ref="E157:E158"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B149:D150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="E221:E222"/>
-    <mergeCell ref="F221:F222"/>
-    <mergeCell ref="G221:G222"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="C223:D224"/>
-    <mergeCell ref="E223:E224"/>
-    <mergeCell ref="F223:F224"/>
-    <mergeCell ref="G223:G224"/>
-    <mergeCell ref="A225:A226"/>
-    <mergeCell ref="B225:B226"/>
-    <mergeCell ref="C225:D226"/>
-    <mergeCell ref="E225:E226"/>
-    <mergeCell ref="F225:F226"/>
-    <mergeCell ref="G225:G226"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:D148"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="G147:G148"/>
-    <mergeCell ref="A201:A202"/>
-    <mergeCell ref="B201:D202"/>
-    <mergeCell ref="E201:E202"/>
-    <mergeCell ref="F201:F202"/>
-    <mergeCell ref="G201:G202"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="C203:D204"/>
-    <mergeCell ref="B211:D212"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="C213:D214"/>
-    <mergeCell ref="A221:A222"/>
-    <mergeCell ref="B221:D222"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L37:W42 L47:W52 L55:W56">
@@ -22269,6 +22271,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -22452,29 +22469,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F66ED76-1AA6-47C4-ACB3-55436DA3AAF4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F66ED76-1AA6-47C4-ACB3-55436DA3AAF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/00_プロジェクト管理/WBSガントチャート_07.xlsx
+++ b/00_プロジェクト管理/WBSガントチャート_07.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1249" documentId="13_ncr:1_{CF2DAAD7-85C2-4067-B19B-C90FB7DE682B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5AF38EA7-8847-44FC-876B-24B1BD606A59}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD0ECA4-738E-4839-8863-54686022CB83}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="10350" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3195" yWindow="930" windowWidth="12930" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -359,10 +357,10 @@
     <t>非機能要求一覧</t>
   </si>
   <si>
-    <t>着手</t>
+    <t>e</t>
   </si>
   <si>
-    <t>e</t>
+    <t>着手</t>
   </si>
   <si>
     <t>分析レビュー/変更</t>
@@ -479,7 +477,7 @@
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -6625,13 +6623,13 @@
   <dimension ref="A1:AO226"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="L30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29:F30"/>
+      <selection pane="bottomRight" activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.75" style="12" customWidth="1"/>
@@ -6647,7 +6645,7 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="14.25" customHeight="1">
+    <row r="1" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
@@ -6716,7 +6714,7 @@
       </c>
       <c r="AE1" s="104"/>
     </row>
-    <row r="2" spans="1:31" ht="13.5" customHeight="1">
+    <row r="2" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="124"/>
       <c r="B2" s="125"/>
       <c r="C2" s="125"/>
@@ -6769,7 +6767,7 @@
       </c>
       <c r="AE2" s="106"/>
     </row>
-    <row r="3" spans="1:31" ht="13.5" customHeight="1">
+    <row r="3" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="124"/>
       <c r="B3" s="125"/>
       <c r="C3" s="125"/>
@@ -6822,7 +6820,7 @@
       </c>
       <c r="AE3" s="102"/>
     </row>
-    <row r="4" spans="1:31" ht="13.5" customHeight="1" thickBot="1">
+    <row r="4" spans="1:31" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="126"/>
       <c r="B4" s="127"/>
       <c r="C4" s="127"/>
@@ -6895,7 +6893,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1">
+    <row r="5" spans="1:31" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A5" s="128" t="s">
         <v>25</v>
       </c>
@@ -6995,7 +6993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1">
+    <row r="6" spans="1:31" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="131"/>
       <c r="B6" s="132"/>
       <c r="C6" s="132"/>
@@ -7010,7 +7008,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="41">
         <f t="shared" ref="K6:AE6" si="1">SUM(K8,K80,K152)</f>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="L6" s="27">
         <f t="shared" si="1"/>
@@ -7022,11 +7020,11 @@
       </c>
       <c r="N6" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O6" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6" s="27">
         <f t="shared" si="1"/>
@@ -7093,7 +7091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="12" customHeight="1" thickTop="1">
+    <row r="7" spans="1:31" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="136" t="s">
         <v>28</v>
       </c>
@@ -7195,7 +7193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="12" customHeight="1">
+    <row r="8" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="92"/>
       <c r="B8" s="93"/>
       <c r="C8" s="93"/>
@@ -7210,7 +7208,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="57">
         <f>SUM(K10,K18,K28,K38,K48,K58,K68,K78)</f>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="L8" s="58">
         <f t="shared" ref="L8:R8" si="4">SUM(L12,L14,L16,L18,L20,L22,L24,L26,L30,L32,L34,L36,L40,L42,L44,L46,L50,L52,L54,L56,L60,L62,L64,L66,L70,L72,L74,L76,L78)</f>
@@ -7222,11 +7220,11 @@
       </c>
       <c r="N8" s="58">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O8" s="58">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P8" s="58">
         <f t="shared" si="4"/>
@@ -7293,7 +7291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="12" customHeight="1">
+    <row r="9" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="72">
         <v>1</v>
       </c>
@@ -7344,7 +7342,7 @@
       <c r="AD9" s="44"/>
       <c r="AE9" s="53"/>
     </row>
-    <row r="10" spans="1:31" ht="12" customHeight="1">
+    <row r="10" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="73"/>
       <c r="B10" s="78"/>
       <c r="C10" s="84"/>
@@ -7383,7 +7381,7 @@
       <c r="AD10" s="46"/>
       <c r="AE10" s="54"/>
     </row>
-    <row r="11" spans="1:31" ht="12" customHeight="1">
+    <row r="11" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="72"/>
       <c r="B11" s="74" t="s">
         <v>33</v>
@@ -7438,7 +7436,7 @@
       <c r="AD11" s="44"/>
       <c r="AE11" s="53"/>
     </row>
-    <row r="12" spans="1:31" ht="12" customHeight="1">
+    <row r="12" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="73"/>
       <c r="B12" s="75"/>
       <c r="C12" s="78"/>
@@ -7481,7 +7479,7 @@
       <c r="AD12" s="46"/>
       <c r="AE12" s="54"/>
     </row>
-    <row r="13" spans="1:31" ht="12" customHeight="1">
+    <row r="13" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="72"/>
       <c r="B13" s="74" t="s">
         <v>37</v>
@@ -7538,7 +7536,7 @@
       <c r="AD13" s="44"/>
       <c r="AE13" s="53"/>
     </row>
-    <row r="14" spans="1:31" ht="12" customHeight="1">
+    <row r="14" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="73"/>
       <c r="B14" s="75"/>
       <c r="C14" s="78"/>
@@ -7583,7 +7581,7 @@
       <c r="AD14" s="46"/>
       <c r="AE14" s="54"/>
     </row>
-    <row r="15" spans="1:31" ht="12" customHeight="1">
+    <row r="15" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="72"/>
       <c r="B15" s="74" t="s">
         <v>39</v>
@@ -7638,7 +7636,7 @@
       <c r="AD15" s="44"/>
       <c r="AE15" s="53"/>
     </row>
-    <row r="16" spans="1:31" ht="12" customHeight="1">
+    <row r="16" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="73"/>
       <c r="B16" s="75"/>
       <c r="C16" s="78"/>
@@ -7681,7 +7679,7 @@
       <c r="AD16" s="46"/>
       <c r="AE16" s="54"/>
     </row>
-    <row r="17" spans="1:31" ht="12" customHeight="1">
+    <row r="17" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="72">
         <v>2</v>
       </c>
@@ -7728,7 +7726,7 @@
       <c r="AD17" s="61"/>
       <c r="AE17" s="53"/>
     </row>
-    <row r="18" spans="1:31" ht="12" customHeight="1">
+    <row r="18" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="73"/>
       <c r="B18" s="78"/>
       <c r="C18" s="84"/>
@@ -7767,7 +7765,7 @@
       <c r="AD18" s="63"/>
       <c r="AE18" s="54"/>
     </row>
-    <row r="19" spans="1:31" ht="12" customHeight="1">
+    <row r="19" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="72"/>
       <c r="B19" s="74" t="s">
         <v>33</v>
@@ -7822,7 +7820,7 @@
       <c r="AD19" s="44"/>
       <c r="AE19" s="53"/>
     </row>
-    <row r="20" spans="1:31" ht="12" customHeight="1">
+    <row r="20" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="73"/>
       <c r="B20" s="75"/>
       <c r="C20" s="78"/>
@@ -7865,7 +7863,7 @@
       <c r="AD20" s="46"/>
       <c r="AE20" s="54"/>
     </row>
-    <row r="21" spans="1:31" ht="12" customHeight="1">
+    <row r="21" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="72"/>
       <c r="B21" s="74" t="s">
         <v>45</v>
@@ -7920,7 +7918,7 @@
       <c r="AD21" s="44"/>
       <c r="AE21" s="53"/>
     </row>
-    <row r="22" spans="1:31" ht="12" customHeight="1">
+    <row r="22" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="73"/>
       <c r="B22" s="75"/>
       <c r="C22" s="78"/>
@@ -7963,7 +7961,7 @@
       <c r="AD22" s="46"/>
       <c r="AE22" s="54"/>
     </row>
-    <row r="23" spans="1:31" ht="12" customHeight="1">
+    <row r="23" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="72"/>
       <c r="B23" s="74" t="s">
         <v>39</v>
@@ -8018,7 +8016,7 @@
       <c r="AD23" s="44"/>
       <c r="AE23" s="53"/>
     </row>
-    <row r="24" spans="1:31" ht="12" customHeight="1">
+    <row r="24" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="73"/>
       <c r="B24" s="75"/>
       <c r="C24" s="78"/>
@@ -8061,10 +8059,10 @@
       <c r="AD24" s="46"/>
       <c r="AE24" s="54"/>
     </row>
-    <row r="25" spans="1:31" ht="12" customHeight="1">
+    <row r="25" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="72"/>
       <c r="B25" s="74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="76" t="s">
         <v>40</v>
@@ -8074,7 +8072,7 @@
         <v>41</v>
       </c>
       <c r="F25" s="80" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G25" s="82" t="s">
         <v>50</v>
@@ -8116,7 +8114,7 @@
       <c r="AD25" s="44"/>
       <c r="AE25" s="53"/>
     </row>
-    <row r="26" spans="1:31" ht="12" customHeight="1">
+    <row r="26" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="73"/>
       <c r="B26" s="75"/>
       <c r="C26" s="78"/>
@@ -8132,13 +8130,15 @@
       <c r="J26" s="23"/>
       <c r="K26" s="9">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26" s="45"/>
       <c r="M26" s="46">
         <v>1</v>
       </c>
-      <c r="N26" s="46"/>
+      <c r="N26" s="46">
+        <v>1</v>
+      </c>
       <c r="O26" s="46"/>
       <c r="P26" s="46"/>
       <c r="Q26" s="46"/>
@@ -8157,7 +8157,7 @@
       <c r="AD26" s="46"/>
       <c r="AE26" s="54"/>
     </row>
-    <row r="27" spans="1:31" ht="12" customHeight="1">
+    <row r="27" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="72">
         <v>3</v>
       </c>
@@ -8206,7 +8206,7 @@
       <c r="AD27" s="61"/>
       <c r="AE27" s="53"/>
     </row>
-    <row r="28" spans="1:31" ht="12" customHeight="1">
+    <row r="28" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="73"/>
       <c r="B28" s="78"/>
       <c r="C28" s="84"/>
@@ -8222,7 +8222,7 @@
       <c r="J28" s="23"/>
       <c r="K28" s="22">
         <f>SUM(K30,K32,K34,K36)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L28" s="62"/>
       <c r="M28" s="63"/>
@@ -8245,7 +8245,7 @@
       <c r="AD28" s="63"/>
       <c r="AE28" s="54"/>
     </row>
-    <row r="29" spans="1:31" ht="12" customHeight="1">
+    <row r="29" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="72"/>
       <c r="B29" s="74" t="s">
         <v>33</v>
@@ -8258,7 +8258,7 @@
         <v>30</v>
       </c>
       <c r="F29" s="80" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G29" s="82" t="s">
         <v>35</v>
@@ -8300,7 +8300,7 @@
       <c r="AD29" s="44"/>
       <c r="AE29" s="53"/>
     </row>
-    <row r="30" spans="1:31" ht="12" customHeight="1">
+    <row r="30" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="73"/>
       <c r="B30" s="75"/>
       <c r="C30" s="78"/>
@@ -8316,11 +8316,13 @@
       <c r="J30" s="23"/>
       <c r="K30" s="9">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="45"/>
       <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
+      <c r="N30" s="46">
+        <v>1</v>
+      </c>
       <c r="O30" s="46"/>
       <c r="P30" s="46"/>
       <c r="Q30" s="46"/>
@@ -8339,7 +8341,7 @@
       <c r="AD30" s="46"/>
       <c r="AE30" s="54"/>
     </row>
-    <row r="31" spans="1:31" ht="12" customHeight="1">
+    <row r="31" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="72"/>
       <c r="B31" s="74" t="s">
         <v>37</v>
@@ -8392,7 +8394,7 @@
       <c r="AD31" s="44"/>
       <c r="AE31" s="53"/>
     </row>
-    <row r="32" spans="1:31" ht="12" customHeight="1">
+    <row r="32" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="73"/>
       <c r="B32" s="75"/>
       <c r="C32" s="78"/>
@@ -8408,11 +8410,13 @@
       <c r="J32" s="23"/>
       <c r="K32" s="9">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L32" s="45"/>
       <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
+      <c r="N32" s="46">
+        <v>3</v>
+      </c>
       <c r="O32" s="46"/>
       <c r="P32" s="46"/>
       <c r="Q32" s="46"/>
@@ -8431,7 +8435,7 @@
       <c r="AD32" s="46"/>
       <c r="AE32" s="54"/>
     </row>
-    <row r="33" spans="1:41" ht="12" customHeight="1">
+    <row r="33" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="72"/>
       <c r="B33" s="74" t="s">
         <v>39</v>
@@ -8486,7 +8490,7 @@
       <c r="AF33" s="48"/>
       <c r="AG33" s="48"/>
     </row>
-    <row r="34" spans="1:41" ht="12" customHeight="1">
+    <row r="34" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="73"/>
       <c r="B34" s="75"/>
       <c r="C34" s="78"/>
@@ -8502,11 +8506,13 @@
       <c r="J34" s="23"/>
       <c r="K34" s="9">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L34" s="45"/>
       <c r="M34" s="46"/>
-      <c r="N34" s="46"/>
+      <c r="N34" s="46">
+        <v>6</v>
+      </c>
       <c r="O34" s="46"/>
       <c r="P34" s="46"/>
       <c r="Q34" s="46"/>
@@ -8527,7 +8533,7 @@
       <c r="AF34" s="48"/>
       <c r="AG34" s="48"/>
     </row>
-    <row r="35" spans="1:41" ht="12" customHeight="1">
+    <row r="35" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="72"/>
       <c r="B35" s="74" t="s">
         <v>55</v>
@@ -8580,7 +8586,7 @@
       <c r="AD35" s="44"/>
       <c r="AE35" s="53"/>
     </row>
-    <row r="36" spans="1:41" ht="12" customHeight="1">
+    <row r="36" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="73"/>
       <c r="B36" s="75"/>
       <c r="C36" s="78"/>
@@ -8596,12 +8602,14 @@
       <c r="J36" s="23"/>
       <c r="K36" s="9">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L36" s="45"/>
       <c r="M36" s="46"/>
       <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
+      <c r="O36" s="46">
+        <v>2</v>
+      </c>
       <c r="P36" s="46"/>
       <c r="Q36" s="46"/>
       <c r="R36" s="46"/>
@@ -8619,7 +8627,7 @@
       <c r="AD36" s="46"/>
       <c r="AE36" s="54"/>
     </row>
-    <row r="37" spans="1:41" ht="12" customHeight="1">
+    <row r="37" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="114">
         <v>4</v>
       </c>
@@ -8668,7 +8676,7 @@
       <c r="AD37" s="61"/>
       <c r="AE37" s="53"/>
     </row>
-    <row r="38" spans="1:41" ht="12" customHeight="1">
+    <row r="38" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="115"/>
       <c r="B38" s="78"/>
       <c r="C38" s="84"/>
@@ -8707,7 +8715,7 @@
       <c r="AD38" s="63"/>
       <c r="AE38" s="54"/>
     </row>
-    <row r="39" spans="1:41" ht="12" customHeight="1">
+    <row r="39" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="114"/>
       <c r="B39" s="116" t="s">
         <v>33</v>
@@ -8760,7 +8768,7 @@
       <c r="AD39" s="44"/>
       <c r="AE39" s="53"/>
     </row>
-    <row r="40" spans="1:41" ht="12" customHeight="1">
+    <row r="40" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="115"/>
       <c r="B40" s="111"/>
       <c r="C40" s="78"/>
@@ -8799,7 +8807,7 @@
       <c r="AD40" s="46"/>
       <c r="AE40" s="54"/>
     </row>
-    <row r="41" spans="1:41" ht="12" customHeight="1">
+    <row r="41" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="114"/>
       <c r="B41" s="116" t="s">
         <v>57</v>
@@ -8852,7 +8860,7 @@
       <c r="AD41" s="44"/>
       <c r="AE41" s="53"/>
     </row>
-    <row r="42" spans="1:41" ht="12" customHeight="1">
+    <row r="42" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="115"/>
       <c r="B42" s="111"/>
       <c r="C42" s="78"/>
@@ -8891,7 +8899,7 @@
       <c r="AD42" s="46"/>
       <c r="AE42" s="54"/>
     </row>
-    <row r="43" spans="1:41" ht="12" customHeight="1">
+    <row r="43" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="72"/>
       <c r="B43" s="74" t="s">
         <v>58</v>
@@ -8944,7 +8952,7 @@
       <c r="AD43" s="44"/>
       <c r="AE43" s="53"/>
     </row>
-    <row r="44" spans="1:41" ht="12" customHeight="1">
+    <row r="44" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="73"/>
       <c r="B44" s="75"/>
       <c r="C44" s="78"/>
@@ -8983,7 +8991,7 @@
       <c r="AD44" s="46"/>
       <c r="AE44" s="54"/>
     </row>
-    <row r="45" spans="1:41" ht="12" customHeight="1">
+    <row r="45" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="72"/>
       <c r="B45" s="74" t="s">
         <v>55</v>
@@ -9046,7 +9054,7 @@
       <c r="AN45" s="48"/>
       <c r="AO45" s="48"/>
     </row>
-    <row r="46" spans="1:41" ht="12" customHeight="1">
+    <row r="46" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="73"/>
       <c r="B46" s="75"/>
       <c r="C46" s="78"/>
@@ -9095,7 +9103,7 @@
       <c r="AN46" s="48"/>
       <c r="AO46" s="48"/>
     </row>
-    <row r="47" spans="1:41" ht="12" customHeight="1">
+    <row r="47" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="114">
         <v>5</v>
       </c>
@@ -9138,7 +9146,7 @@
       <c r="AD47" s="61"/>
       <c r="AE47" s="53"/>
     </row>
-    <row r="48" spans="1:41" ht="12" customHeight="1">
+    <row r="48" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="115"/>
       <c r="B48" s="78"/>
       <c r="C48" s="84"/>
@@ -9177,7 +9185,7 @@
       <c r="AD48" s="63"/>
       <c r="AE48" s="54"/>
     </row>
-    <row r="49" spans="1:41" ht="12" customHeight="1">
+    <row r="49" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="72"/>
       <c r="B49" s="74" t="s">
         <v>33</v>
@@ -9240,7 +9248,7 @@
       <c r="AN49" s="48"/>
       <c r="AO49" s="48"/>
     </row>
-    <row r="50" spans="1:41" ht="12" customHeight="1">
+    <row r="50" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="73"/>
       <c r="B50" s="75"/>
       <c r="C50" s="78"/>
@@ -9289,7 +9297,7 @@
       <c r="AN50" s="48"/>
       <c r="AO50" s="48"/>
     </row>
-    <row r="51" spans="1:41" ht="12" customHeight="1">
+    <row r="51" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="114"/>
       <c r="B51" s="116" t="s">
         <v>45</v>
@@ -9342,7 +9350,7 @@
       <c r="AD51" s="44"/>
       <c r="AE51" s="53"/>
     </row>
-    <row r="52" spans="1:41" ht="12" customHeight="1">
+    <row r="52" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="115"/>
       <c r="B52" s="111"/>
       <c r="C52" s="78"/>
@@ -9381,7 +9389,7 @@
       <c r="AD52" s="46"/>
       <c r="AE52" s="54"/>
     </row>
-    <row r="53" spans="1:41" ht="12" customHeight="1">
+    <row r="53" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="72"/>
       <c r="B53" s="74" t="s">
         <v>39</v>
@@ -9444,7 +9452,7 @@
       <c r="AN53" s="48"/>
       <c r="AO53" s="48"/>
     </row>
-    <row r="54" spans="1:41" ht="12" customHeight="1">
+    <row r="54" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="73"/>
       <c r="B54" s="75"/>
       <c r="C54" s="78"/>
@@ -9493,7 +9501,7 @@
       <c r="AN54" s="48"/>
       <c r="AO54" s="48"/>
     </row>
-    <row r="55" spans="1:41" ht="12" customHeight="1">
+    <row r="55" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="114"/>
       <c r="B55" s="116" t="s">
         <v>55</v>
@@ -9545,7 +9553,7 @@
       <c r="AD55" s="44"/>
       <c r="AE55" s="53"/>
     </row>
-    <row r="56" spans="1:41" ht="12" customHeight="1">
+    <row r="56" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="115"/>
       <c r="B56" s="111"/>
       <c r="C56" s="78"/>
@@ -9584,7 +9592,7 @@
       <c r="AD56" s="46"/>
       <c r="AE56" s="54"/>
     </row>
-    <row r="57" spans="1:41" ht="12" customHeight="1">
+    <row r="57" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="114">
         <v>6</v>
       </c>
@@ -9627,7 +9635,7 @@
       <c r="AD57" s="61"/>
       <c r="AE57" s="53"/>
     </row>
-    <row r="58" spans="1:41" ht="12" customHeight="1">
+    <row r="58" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="115"/>
       <c r="B58" s="78"/>
       <c r="C58" s="84"/>
@@ -9666,7 +9674,7 @@
       <c r="AD58" s="63"/>
       <c r="AE58" s="54"/>
     </row>
-    <row r="59" spans="1:41" ht="12" customHeight="1">
+    <row r="59" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="114"/>
       <c r="B59" s="116" t="s">
         <v>33</v>
@@ -9719,7 +9727,7 @@
       <c r="AD59" s="44"/>
       <c r="AE59" s="53"/>
     </row>
-    <row r="60" spans="1:41" ht="12" customHeight="1">
+    <row r="60" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="115"/>
       <c r="B60" s="111"/>
       <c r="C60" s="78"/>
@@ -9758,7 +9766,7 @@
       <c r="AD60" s="46"/>
       <c r="AE60" s="54"/>
     </row>
-    <row r="61" spans="1:41" ht="12" customHeight="1">
+    <row r="61" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="72"/>
       <c r="B61" s="74" t="s">
         <v>37</v>
@@ -9821,7 +9829,7 @@
       <c r="AN61" s="48"/>
       <c r="AO61" s="48"/>
     </row>
-    <row r="62" spans="1:41" ht="12" customHeight="1">
+    <row r="62" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="73"/>
       <c r="B62" s="75"/>
       <c r="C62" s="78"/>
@@ -9870,7 +9878,7 @@
       <c r="AN62" s="48"/>
       <c r="AO62" s="48"/>
     </row>
-    <row r="63" spans="1:41" ht="12" customHeight="1">
+    <row r="63" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="114"/>
       <c r="B63" s="116" t="s">
         <v>39</v>
@@ -9923,7 +9931,7 @@
       <c r="AD63" s="44"/>
       <c r="AE63" s="53"/>
     </row>
-    <row r="64" spans="1:41" ht="12" customHeight="1">
+    <row r="64" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="115"/>
       <c r="B64" s="111"/>
       <c r="C64" s="78"/>
@@ -9962,7 +9970,7 @@
       <c r="AD64" s="46"/>
       <c r="AE64" s="54"/>
     </row>
-    <row r="65" spans="1:41" ht="12" customHeight="1">
+    <row r="65" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="72"/>
       <c r="B65" s="74" t="s">
         <v>55</v>
@@ -10025,7 +10033,7 @@
       <c r="AN65" s="48"/>
       <c r="AO65" s="48"/>
     </row>
-    <row r="66" spans="1:41" ht="12" customHeight="1">
+    <row r="66" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="73"/>
       <c r="B66" s="75"/>
       <c r="C66" s="78"/>
@@ -10074,7 +10082,7 @@
       <c r="AN66" s="48"/>
       <c r="AO66" s="48"/>
     </row>
-    <row r="67" spans="1:41" ht="12" customHeight="1">
+    <row r="67" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="72">
         <v>7</v>
       </c>
@@ -10117,7 +10125,7 @@
       <c r="AD67" s="61"/>
       <c r="AE67" s="53"/>
     </row>
-    <row r="68" spans="1:41" ht="12" customHeight="1">
+    <row r="68" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="73"/>
       <c r="B68" s="78"/>
       <c r="C68" s="84"/>
@@ -10156,7 +10164,7 @@
       <c r="AD68" s="63"/>
       <c r="AE68" s="54"/>
     </row>
-    <row r="69" spans="1:41" ht="12" customHeight="1">
+    <row r="69" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="72"/>
       <c r="B69" s="74" t="s">
         <v>33</v>
@@ -10209,7 +10217,7 @@
       <c r="AD69" s="44"/>
       <c r="AE69" s="53"/>
     </row>
-    <row r="70" spans="1:41" ht="12" customHeight="1">
+    <row r="70" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="73"/>
       <c r="B70" s="75"/>
       <c r="C70" s="78"/>
@@ -10248,7 +10256,7 @@
       <c r="AD70" s="46"/>
       <c r="AE70" s="54"/>
     </row>
-    <row r="71" spans="1:41" ht="12" customHeight="1">
+    <row r="71" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="72"/>
       <c r="B71" s="74" t="s">
         <v>37</v>
@@ -10311,7 +10319,7 @@
       <c r="AN71" s="48"/>
       <c r="AO71" s="48"/>
     </row>
-    <row r="72" spans="1:41" ht="12" customHeight="1">
+    <row r="72" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="73"/>
       <c r="B72" s="75"/>
       <c r="C72" s="78"/>
@@ -10360,7 +10368,7 @@
       <c r="AN72" s="48"/>
       <c r="AO72" s="48"/>
     </row>
-    <row r="73" spans="1:41" ht="12" customHeight="1">
+    <row r="73" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="72"/>
       <c r="B73" s="74" t="s">
         <v>39</v>
@@ -10413,7 +10421,7 @@
       <c r="AD73" s="44"/>
       <c r="AE73" s="53"/>
     </row>
-    <row r="74" spans="1:41" ht="12" customHeight="1">
+    <row r="74" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="73"/>
       <c r="B74" s="75"/>
       <c r="C74" s="78"/>
@@ -10452,7 +10460,7 @@
       <c r="AD74" s="46"/>
       <c r="AE74" s="54"/>
     </row>
-    <row r="75" spans="1:41" ht="12" customHeight="1">
+    <row r="75" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="72"/>
       <c r="B75" s="74" t="s">
         <v>55</v>
@@ -10515,7 +10523,7 @@
       <c r="AN75" s="48"/>
       <c r="AO75" s="48"/>
     </row>
-    <row r="76" spans="1:41" ht="12" customHeight="1">
+    <row r="76" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="73"/>
       <c r="B76" s="75"/>
       <c r="C76" s="78"/>
@@ -10564,7 +10572,7 @@
       <c r="AN76" s="48"/>
       <c r="AO76" s="48"/>
     </row>
-    <row r="77" spans="1:41" ht="12" customHeight="1">
+    <row r="77" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="72">
         <v>8</v>
       </c>
@@ -10619,7 +10627,7 @@
       <c r="AN77" s="48"/>
       <c r="AO77" s="48"/>
     </row>
-    <row r="78" spans="1:41" ht="12" customHeight="1" thickBot="1">
+    <row r="78" spans="1:41" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A78" s="73"/>
       <c r="B78" s="78"/>
       <c r="C78" s="84"/>
@@ -10668,7 +10676,7 @@
       <c r="AN78" s="48"/>
       <c r="AO78" s="48"/>
     </row>
-    <row r="79" spans="1:41" ht="12" customHeight="1" thickTop="1">
+    <row r="79" spans="1:41" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A79" s="136" t="s">
         <v>75</v>
       </c>
@@ -10765,7 +10773,7 @@
       <c r="AN79" s="48"/>
       <c r="AO79" s="48"/>
     </row>
-    <row r="80" spans="1:41" ht="12" customHeight="1">
+    <row r="80" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="92"/>
       <c r="B80" s="93"/>
       <c r="C80" s="93"/>
@@ -10873,7 +10881,7 @@
       <c r="AN80" s="48"/>
       <c r="AO80" s="48"/>
     </row>
-    <row r="81" spans="1:41" ht="12" customHeight="1">
+    <row r="81" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="72">
         <v>1</v>
       </c>
@@ -10934,7 +10942,7 @@
       <c r="AN81" s="48"/>
       <c r="AO81" s="48"/>
     </row>
-    <row r="82" spans="1:41" ht="12" customHeight="1">
+    <row r="82" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="73"/>
       <c r="B82" s="78"/>
       <c r="C82" s="84"/>
@@ -10983,7 +10991,7 @@
       <c r="AN82" s="48"/>
       <c r="AO82" s="48"/>
     </row>
-    <row r="83" spans="1:41" ht="12" customHeight="1">
+    <row r="83" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="72"/>
       <c r="B83" s="74" t="s">
         <v>33</v>
@@ -11046,7 +11054,7 @@
       <c r="AN83" s="48"/>
       <c r="AO83" s="48"/>
     </row>
-    <row r="84" spans="1:41" ht="12" customHeight="1">
+    <row r="84" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="73"/>
       <c r="B84" s="75"/>
       <c r="C84" s="78"/>
@@ -11095,7 +11103,7 @@
       <c r="AN84" s="48"/>
       <c r="AO84" s="48"/>
     </row>
-    <row r="85" spans="1:41" ht="12" customHeight="1">
+    <row r="85" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="72"/>
       <c r="B85" s="74" t="s">
         <v>37</v>
@@ -11158,7 +11166,7 @@
       <c r="AN85" s="48"/>
       <c r="AO85" s="48"/>
     </row>
-    <row r="86" spans="1:41" ht="12" customHeight="1">
+    <row r="86" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="73"/>
       <c r="B86" s="75"/>
       <c r="C86" s="78"/>
@@ -11207,7 +11215,7 @@
       <c r="AN86" s="48"/>
       <c r="AO86" s="48"/>
     </row>
-    <row r="87" spans="1:41" ht="12" customHeight="1">
+    <row r="87" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="72"/>
       <c r="B87" s="74" t="s">
         <v>39</v>
@@ -11270,7 +11278,7 @@
       <c r="AN87" s="48"/>
       <c r="AO87" s="48"/>
     </row>
-    <row r="88" spans="1:41" ht="12" customHeight="1">
+    <row r="88" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="73"/>
       <c r="B88" s="75"/>
       <c r="C88" s="78"/>
@@ -11319,7 +11327,7 @@
       <c r="AN88" s="48"/>
       <c r="AO88" s="48"/>
     </row>
-    <row r="89" spans="1:41" ht="12" customHeight="1">
+    <row r="89" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="72">
         <v>2</v>
       </c>
@@ -11378,7 +11386,7 @@
       <c r="AN89" s="48"/>
       <c r="AO89" s="48"/>
     </row>
-    <row r="90" spans="1:41" ht="12" customHeight="1">
+    <row r="90" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="73"/>
       <c r="B90" s="78"/>
       <c r="C90" s="84"/>
@@ -11427,7 +11435,7 @@
       <c r="AN90" s="48"/>
       <c r="AO90" s="48"/>
     </row>
-    <row r="91" spans="1:41" ht="12" customHeight="1">
+    <row r="91" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="72"/>
       <c r="B91" s="74" t="s">
         <v>33</v>
@@ -11490,7 +11498,7 @@
       <c r="AN91" s="48"/>
       <c r="AO91" s="48"/>
     </row>
-    <row r="92" spans="1:41" ht="12" customHeight="1">
+    <row r="92" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="73"/>
       <c r="B92" s="75"/>
       <c r="C92" s="78"/>
@@ -11539,7 +11547,7 @@
       <c r="AN92" s="48"/>
       <c r="AO92" s="48"/>
     </row>
-    <row r="93" spans="1:41" ht="12" customHeight="1">
+    <row r="93" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="72"/>
       <c r="B93" s="74" t="s">
         <v>45</v>
@@ -11602,7 +11610,7 @@
       <c r="AN93" s="48"/>
       <c r="AO93" s="48"/>
     </row>
-    <row r="94" spans="1:41" ht="12" customHeight="1">
+    <row r="94" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="73"/>
       <c r="B94" s="75"/>
       <c r="C94" s="78"/>
@@ -11651,7 +11659,7 @@
       <c r="AN94" s="48"/>
       <c r="AO94" s="48"/>
     </row>
-    <row r="95" spans="1:41" ht="12" customHeight="1">
+    <row r="95" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="72"/>
       <c r="B95" s="74" t="s">
         <v>39</v>
@@ -11714,7 +11722,7 @@
       <c r="AN95" s="48"/>
       <c r="AO95" s="48"/>
     </row>
-    <row r="96" spans="1:41" ht="12" customHeight="1">
+    <row r="96" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="73"/>
       <c r="B96" s="75"/>
       <c r="C96" s="78"/>
@@ -11763,10 +11771,10 @@
       <c r="AN96" s="48"/>
       <c r="AO96" s="48"/>
     </row>
-    <row r="97" spans="1:41" ht="12" customHeight="1">
+    <row r="97" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="72"/>
       <c r="B97" s="74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C97" s="76" t="s">
         <v>40</v>
@@ -11826,7 +11834,7 @@
       <c r="AN97" s="48"/>
       <c r="AO97" s="48"/>
     </row>
-    <row r="98" spans="1:41" ht="12" customHeight="1">
+    <row r="98" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="73"/>
       <c r="B98" s="75"/>
       <c r="C98" s="78"/>
@@ -11875,7 +11883,7 @@
       <c r="AN98" s="48"/>
       <c r="AO98" s="48"/>
     </row>
-    <row r="99" spans="1:41" ht="12" customHeight="1">
+    <row r="99" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="72">
         <v>3</v>
       </c>
@@ -11934,7 +11942,7 @@
       <c r="AN99" s="48"/>
       <c r="AO99" s="48"/>
     </row>
-    <row r="100" spans="1:41" ht="12" customHeight="1">
+    <row r="100" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="73"/>
       <c r="B100" s="78"/>
       <c r="C100" s="84"/>
@@ -11983,7 +11991,7 @@
       <c r="AN100" s="48"/>
       <c r="AO100" s="48"/>
     </row>
-    <row r="101" spans="1:41" ht="12" customHeight="1">
+    <row r="101" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="72"/>
       <c r="B101" s="74" t="s">
         <v>33</v>
@@ -12046,7 +12054,7 @@
       <c r="AN101" s="48"/>
       <c r="AO101" s="48"/>
     </row>
-    <row r="102" spans="1:41" ht="12" customHeight="1">
+    <row r="102" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="73"/>
       <c r="B102" s="75"/>
       <c r="C102" s="78"/>
@@ -12095,7 +12103,7 @@
       <c r="AN102" s="48"/>
       <c r="AO102" s="48"/>
     </row>
-    <row r="103" spans="1:41" ht="12" customHeight="1">
+    <row r="103" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="72"/>
       <c r="B103" s="74" t="s">
         <v>37</v>
@@ -12158,7 +12166,7 @@
       <c r="AN103" s="48"/>
       <c r="AO103" s="48"/>
     </row>
-    <row r="104" spans="1:41" ht="12" customHeight="1">
+    <row r="104" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="73"/>
       <c r="B104" s="75"/>
       <c r="C104" s="78"/>
@@ -12207,7 +12215,7 @@
       <c r="AN104" s="48"/>
       <c r="AO104" s="48"/>
     </row>
-    <row r="105" spans="1:41" ht="12" customHeight="1">
+    <row r="105" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="72"/>
       <c r="B105" s="74" t="s">
         <v>58</v>
@@ -12270,7 +12278,7 @@
       <c r="AN105" s="48"/>
       <c r="AO105" s="48"/>
     </row>
-    <row r="106" spans="1:41" ht="12" customHeight="1">
+    <row r="106" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="73"/>
       <c r="B106" s="75"/>
       <c r="C106" s="78"/>
@@ -12319,7 +12327,7 @@
       <c r="AN106" s="48"/>
       <c r="AO106" s="48"/>
     </row>
-    <row r="107" spans="1:41" ht="12" customHeight="1">
+    <row r="107" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="72"/>
       <c r="B107" s="74" t="s">
         <v>55</v>
@@ -12382,7 +12390,7 @@
       <c r="AN107" s="48"/>
       <c r="AO107" s="48"/>
     </row>
-    <row r="108" spans="1:41" ht="12" customHeight="1">
+    <row r="108" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="73"/>
       <c r="B108" s="75"/>
       <c r="C108" s="78"/>
@@ -12431,7 +12439,7 @@
       <c r="AN108" s="48"/>
       <c r="AO108" s="48"/>
     </row>
-    <row r="109" spans="1:41" ht="12" customHeight="1">
+    <row r="109" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="72">
         <v>4</v>
       </c>
@@ -12492,7 +12500,7 @@
       <c r="AN109" s="48"/>
       <c r="AO109" s="48"/>
     </row>
-    <row r="110" spans="1:41" ht="12" customHeight="1">
+    <row r="110" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="73"/>
       <c r="B110" s="78"/>
       <c r="C110" s="84"/>
@@ -12541,7 +12549,7 @@
       <c r="AN110" s="48"/>
       <c r="AO110" s="48"/>
     </row>
-    <row r="111" spans="1:41" ht="12" customHeight="1">
+    <row r="111" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="72"/>
       <c r="B111" s="74" t="s">
         <v>33</v>
@@ -12604,7 +12612,7 @@
       <c r="AN111" s="48"/>
       <c r="AO111" s="48"/>
     </row>
-    <row r="112" spans="1:41" ht="12" customHeight="1">
+    <row r="112" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="73"/>
       <c r="B112" s="75"/>
       <c r="C112" s="78"/>
@@ -12653,7 +12661,7 @@
       <c r="AN112" s="48"/>
       <c r="AO112" s="48"/>
     </row>
-    <row r="113" spans="1:41" ht="12" customHeight="1">
+    <row r="113" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="72"/>
       <c r="B113" s="74" t="s">
         <v>57</v>
@@ -12716,7 +12724,7 @@
       <c r="AN113" s="48"/>
       <c r="AO113" s="48"/>
     </row>
-    <row r="114" spans="1:41" ht="12" customHeight="1">
+    <row r="114" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="73"/>
       <c r="B114" s="75"/>
       <c r="C114" s="78"/>
@@ -12765,7 +12773,7 @@
       <c r="AN114" s="48"/>
       <c r="AO114" s="48"/>
     </row>
-    <row r="115" spans="1:41" ht="12" customHeight="1">
+    <row r="115" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="72"/>
       <c r="B115" s="74" t="s">
         <v>58</v>
@@ -12828,7 +12836,7 @@
       <c r="AN115" s="48"/>
       <c r="AO115" s="48"/>
     </row>
-    <row r="116" spans="1:41" ht="12" customHeight="1">
+    <row r="116" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="73"/>
       <c r="B116" s="75"/>
       <c r="C116" s="78"/>
@@ -12877,7 +12885,7 @@
       <c r="AN116" s="48"/>
       <c r="AO116" s="48"/>
     </row>
-    <row r="117" spans="1:41" ht="12" customHeight="1">
+    <row r="117" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="72"/>
       <c r="B117" s="74" t="s">
         <v>55</v>
@@ -12940,7 +12948,7 @@
       <c r="AN117" s="48"/>
       <c r="AO117" s="48"/>
     </row>
-    <row r="118" spans="1:41" ht="12" customHeight="1">
+    <row r="118" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="73"/>
       <c r="B118" s="75"/>
       <c r="C118" s="78"/>
@@ -12989,7 +12997,7 @@
       <c r="AN118" s="48"/>
       <c r="AO118" s="48"/>
     </row>
-    <row r="119" spans="1:41" ht="12" customHeight="1">
+    <row r="119" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="72">
         <v>5</v>
       </c>
@@ -13046,7 +13054,7 @@
       <c r="AN119" s="48"/>
       <c r="AO119" s="48"/>
     </row>
-    <row r="120" spans="1:41" ht="12" customHeight="1">
+    <row r="120" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="73"/>
       <c r="B120" s="78"/>
       <c r="C120" s="84"/>
@@ -13095,7 +13103,7 @@
       <c r="AN120" s="48"/>
       <c r="AO120" s="48"/>
     </row>
-    <row r="121" spans="1:41" ht="12" customHeight="1">
+    <row r="121" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="72"/>
       <c r="B121" s="74" t="s">
         <v>33</v>
@@ -13160,7 +13168,7 @@
       <c r="AN121" s="48"/>
       <c r="AO121" s="48"/>
     </row>
-    <row r="122" spans="1:41" ht="12" customHeight="1">
+    <row r="122" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="73"/>
       <c r="B122" s="75"/>
       <c r="C122" s="78"/>
@@ -13209,7 +13217,7 @@
       <c r="AN122" s="48"/>
       <c r="AO122" s="48"/>
     </row>
-    <row r="123" spans="1:41" ht="12" customHeight="1">
+    <row r="123" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="72"/>
       <c r="B123" s="74" t="s">
         <v>45</v>
@@ -13272,7 +13280,7 @@
       <c r="AN123" s="48"/>
       <c r="AO123" s="48"/>
     </row>
-    <row r="124" spans="1:41" ht="12" customHeight="1">
+    <row r="124" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="73"/>
       <c r="B124" s="75"/>
       <c r="C124" s="78"/>
@@ -13321,7 +13329,7 @@
       <c r="AN124" s="48"/>
       <c r="AO124" s="48"/>
     </row>
-    <row r="125" spans="1:41" ht="12" customHeight="1">
+    <row r="125" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="72"/>
       <c r="B125" s="74" t="s">
         <v>39</v>
@@ -13384,7 +13392,7 @@
       <c r="AN125" s="48"/>
       <c r="AO125" s="48"/>
     </row>
-    <row r="126" spans="1:41" ht="12" customHeight="1">
+    <row r="126" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="73"/>
       <c r="B126" s="75"/>
       <c r="C126" s="78"/>
@@ -13433,7 +13441,7 @@
       <c r="AN126" s="48"/>
       <c r="AO126" s="48"/>
     </row>
-    <row r="127" spans="1:41" ht="12" customHeight="1">
+    <row r="127" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="72"/>
       <c r="B127" s="74" t="s">
         <v>55</v>
@@ -13496,7 +13504,7 @@
       <c r="AN127" s="48"/>
       <c r="AO127" s="48"/>
     </row>
-    <row r="128" spans="1:41" ht="12" customHeight="1">
+    <row r="128" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="73"/>
       <c r="B128" s="75"/>
       <c r="C128" s="78"/>
@@ -13545,7 +13553,7 @@
       <c r="AN128" s="48"/>
       <c r="AO128" s="48"/>
     </row>
-    <row r="129" spans="1:41" ht="12" customHeight="1">
+    <row r="129" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="72">
         <v>6</v>
       </c>
@@ -13602,7 +13610,7 @@
       <c r="AN129" s="48"/>
       <c r="AO129" s="48"/>
     </row>
-    <row r="130" spans="1:41" ht="12" customHeight="1">
+    <row r="130" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="73"/>
       <c r="B130" s="78"/>
       <c r="C130" s="84"/>
@@ -13651,7 +13659,7 @@
       <c r="AN130" s="48"/>
       <c r="AO130" s="48"/>
     </row>
-    <row r="131" spans="1:41" ht="12" customHeight="1">
+    <row r="131" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="72"/>
       <c r="B131" s="74" t="s">
         <v>33</v>
@@ -13714,7 +13722,7 @@
       <c r="AN131" s="48"/>
       <c r="AO131" s="48"/>
     </row>
-    <row r="132" spans="1:41" ht="12" customHeight="1">
+    <row r="132" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="73"/>
       <c r="B132" s="75"/>
       <c r="C132" s="78"/>
@@ -13763,7 +13771,7 @@
       <c r="AN132" s="48"/>
       <c r="AO132" s="48"/>
     </row>
-    <row r="133" spans="1:41" ht="12" customHeight="1">
+    <row r="133" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="72"/>
       <c r="B133" s="74" t="s">
         <v>37</v>
@@ -13826,7 +13834,7 @@
       <c r="AN133" s="48"/>
       <c r="AO133" s="48"/>
     </row>
-    <row r="134" spans="1:41" ht="12" customHeight="1">
+    <row r="134" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="73"/>
       <c r="B134" s="75"/>
       <c r="C134" s="78"/>
@@ -13875,7 +13883,7 @@
       <c r="AN134" s="48"/>
       <c r="AO134" s="48"/>
     </row>
-    <row r="135" spans="1:41" ht="12" customHeight="1">
+    <row r="135" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="72"/>
       <c r="B135" s="74" t="s">
         <v>39</v>
@@ -13940,7 +13948,7 @@
       <c r="AN135" s="48"/>
       <c r="AO135" s="48"/>
     </row>
-    <row r="136" spans="1:41" ht="12" customHeight="1">
+    <row r="136" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="73"/>
       <c r="B136" s="75"/>
       <c r="C136" s="78"/>
@@ -13989,7 +13997,7 @@
       <c r="AN136" s="48"/>
       <c r="AO136" s="48"/>
     </row>
-    <row r="137" spans="1:41" ht="12" customHeight="1">
+    <row r="137" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="72"/>
       <c r="B137" s="74" t="s">
         <v>55</v>
@@ -14052,7 +14060,7 @@
       <c r="AN137" s="48"/>
       <c r="AO137" s="48"/>
     </row>
-    <row r="138" spans="1:41" ht="12" customHeight="1">
+    <row r="138" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="73"/>
       <c r="B138" s="75"/>
       <c r="C138" s="78"/>
@@ -14101,7 +14109,7 @@
       <c r="AN138" s="48"/>
       <c r="AO138" s="48"/>
     </row>
-    <row r="139" spans="1:41" ht="12" customHeight="1">
+    <row r="139" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="72">
         <v>7</v>
       </c>
@@ -14158,7 +14166,7 @@
       <c r="AN139" s="48"/>
       <c r="AO139" s="48"/>
     </row>
-    <row r="140" spans="1:41" ht="12" customHeight="1">
+    <row r="140" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="73"/>
       <c r="B140" s="78"/>
       <c r="C140" s="84"/>
@@ -14207,7 +14215,7 @@
       <c r="AN140" s="48"/>
       <c r="AO140" s="48"/>
     </row>
-    <row r="141" spans="1:41" ht="12" customHeight="1">
+    <row r="141" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="72"/>
       <c r="B141" s="74" t="s">
         <v>33</v>
@@ -14270,7 +14278,7 @@
       <c r="AN141" s="48"/>
       <c r="AO141" s="48"/>
     </row>
-    <row r="142" spans="1:41" ht="12" customHeight="1">
+    <row r="142" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="73"/>
       <c r="B142" s="75"/>
       <c r="C142" s="78"/>
@@ -14319,7 +14327,7 @@
       <c r="AN142" s="48"/>
       <c r="AO142" s="48"/>
     </row>
-    <row r="143" spans="1:41" ht="12" customHeight="1">
+    <row r="143" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="72"/>
       <c r="B143" s="74" t="s">
         <v>37</v>
@@ -14382,7 +14390,7 @@
       <c r="AN143" s="48"/>
       <c r="AO143" s="48"/>
     </row>
-    <row r="144" spans="1:41" ht="12" customHeight="1">
+    <row r="144" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="73"/>
       <c r="B144" s="75"/>
       <c r="C144" s="78"/>
@@ -14431,7 +14439,7 @@
       <c r="AN144" s="48"/>
       <c r="AO144" s="48"/>
     </row>
-    <row r="145" spans="1:41" ht="12" customHeight="1">
+    <row r="145" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="72"/>
       <c r="B145" s="74" t="s">
         <v>39</v>
@@ -14494,7 +14502,7 @@
       <c r="AN145" s="48"/>
       <c r="AO145" s="48"/>
     </row>
-    <row r="146" spans="1:41" ht="12" customHeight="1">
+    <row r="146" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="73"/>
       <c r="B146" s="75"/>
       <c r="C146" s="78"/>
@@ -14543,7 +14551,7 @@
       <c r="AN146" s="48"/>
       <c r="AO146" s="48"/>
     </row>
-    <row r="147" spans="1:41" ht="12" customHeight="1">
+    <row r="147" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="72"/>
       <c r="B147" s="74" t="s">
         <v>55</v>
@@ -14606,7 +14614,7 @@
       <c r="AN147" s="48"/>
       <c r="AO147" s="48"/>
     </row>
-    <row r="148" spans="1:41" ht="12" customHeight="1">
+    <row r="148" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="73"/>
       <c r="B148" s="75"/>
       <c r="C148" s="78"/>
@@ -14655,7 +14663,7 @@
       <c r="AN148" s="48"/>
       <c r="AO148" s="48"/>
     </row>
-    <row r="149" spans="1:41" ht="12" customHeight="1">
+    <row r="149" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="72">
         <v>8</v>
       </c>
@@ -14712,7 +14720,7 @@
       <c r="AN149" s="48"/>
       <c r="AO149" s="48"/>
     </row>
-    <row r="150" spans="1:41" ht="12" customHeight="1">
+    <row r="150" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="73"/>
       <c r="B150" s="78"/>
       <c r="C150" s="84"/>
@@ -14761,7 +14769,7 @@
       <c r="AN150" s="48"/>
       <c r="AO150" s="48"/>
     </row>
-    <row r="151" spans="1:41" ht="12" customHeight="1">
+    <row r="151" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="89" t="s">
         <v>80</v>
       </c>
@@ -14869,7 +14877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:41" ht="12" customHeight="1">
+    <row r="152" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="92"/>
       <c r="B152" s="93"/>
       <c r="C152" s="93"/>
@@ -14969,7 +14977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:41" ht="12" customHeight="1">
+    <row r="153" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="72">
         <v>1</v>
       </c>
@@ -15030,7 +15038,7 @@
       <c r="AN153" s="48"/>
       <c r="AO153" s="48"/>
     </row>
-    <row r="154" spans="1:41" ht="12" customHeight="1">
+    <row r="154" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="73"/>
       <c r="B154" s="78"/>
       <c r="C154" s="84"/>
@@ -15079,7 +15087,7 @@
       <c r="AN154" s="48"/>
       <c r="AO154" s="48"/>
     </row>
-    <row r="155" spans="1:41" ht="12" customHeight="1">
+    <row r="155" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="72"/>
       <c r="B155" s="74" t="s">
         <v>33</v>
@@ -15142,7 +15150,7 @@
       <c r="AN155" s="48"/>
       <c r="AO155" s="48"/>
     </row>
-    <row r="156" spans="1:41" ht="12" customHeight="1">
+    <row r="156" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="73"/>
       <c r="B156" s="75"/>
       <c r="C156" s="78"/>
@@ -15191,7 +15199,7 @@
       <c r="AN156" s="48"/>
       <c r="AO156" s="48"/>
     </row>
-    <row r="157" spans="1:41" ht="12" customHeight="1">
+    <row r="157" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="72"/>
       <c r="B157" s="74" t="s">
         <v>37</v>
@@ -15254,7 +15262,7 @@
       <c r="AN157" s="48"/>
       <c r="AO157" s="48"/>
     </row>
-    <row r="158" spans="1:41" ht="12" customHeight="1">
+    <row r="158" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="73"/>
       <c r="B158" s="75"/>
       <c r="C158" s="78"/>
@@ -15303,7 +15311,7 @@
       <c r="AN158" s="48"/>
       <c r="AO158" s="48"/>
     </row>
-    <row r="159" spans="1:41" ht="12" customHeight="1">
+    <row r="159" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="72"/>
       <c r="B159" s="74" t="s">
         <v>39</v>
@@ -15366,7 +15374,7 @@
       <c r="AN159" s="48"/>
       <c r="AO159" s="48"/>
     </row>
-    <row r="160" spans="1:41" ht="12" customHeight="1">
+    <row r="160" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="73"/>
       <c r="B160" s="75"/>
       <c r="C160" s="78"/>
@@ -15415,7 +15423,7 @@
       <c r="AN160" s="48"/>
       <c r="AO160" s="48"/>
     </row>
-    <row r="161" spans="1:41" ht="12" customHeight="1">
+    <row r="161" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="72">
         <v>2</v>
       </c>
@@ -15476,7 +15484,7 @@
       <c r="AN161" s="48"/>
       <c r="AO161" s="48"/>
     </row>
-    <row r="162" spans="1:41" ht="12" customHeight="1">
+    <row r="162" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="73"/>
       <c r="B162" s="78"/>
       <c r="C162" s="84"/>
@@ -15525,7 +15533,7 @@
       <c r="AN162" s="48"/>
       <c r="AO162" s="48"/>
     </row>
-    <row r="163" spans="1:41" ht="12" customHeight="1">
+    <row r="163" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="72"/>
       <c r="B163" s="74" t="s">
         <v>33</v>
@@ -15588,7 +15596,7 @@
       <c r="AN163" s="48"/>
       <c r="AO163" s="48"/>
     </row>
-    <row r="164" spans="1:41" ht="12" customHeight="1">
+    <row r="164" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="73"/>
       <c r="B164" s="75"/>
       <c r="C164" s="78"/>
@@ -15637,7 +15645,7 @@
       <c r="AN164" s="48"/>
       <c r="AO164" s="48"/>
     </row>
-    <row r="165" spans="1:41" ht="12" customHeight="1">
+    <row r="165" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="72"/>
       <c r="B165" s="74" t="s">
         <v>45</v>
@@ -15700,7 +15708,7 @@
       <c r="AN165" s="48"/>
       <c r="AO165" s="48"/>
     </row>
-    <row r="166" spans="1:41" ht="12" customHeight="1">
+    <row r="166" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="73"/>
       <c r="B166" s="75"/>
       <c r="C166" s="78"/>
@@ -15749,7 +15757,7 @@
       <c r="AN166" s="48"/>
       <c r="AO166" s="48"/>
     </row>
-    <row r="167" spans="1:41">
+    <row r="167" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A167" s="72"/>
       <c r="B167" s="74" t="s">
         <v>39</v>
@@ -15812,7 +15820,7 @@
       <c r="AN167" s="48"/>
       <c r="AO167" s="48"/>
     </row>
-    <row r="168" spans="1:41">
+    <row r="168" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A168" s="73"/>
       <c r="B168" s="75"/>
       <c r="C168" s="78"/>
@@ -15861,10 +15869,10 @@
       <c r="AN168" s="48"/>
       <c r="AO168" s="48"/>
     </row>
-    <row r="169" spans="1:41">
+    <row r="169" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A169" s="72"/>
       <c r="B169" s="74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C169" s="76" t="s">
         <v>40</v>
@@ -15924,7 +15932,7 @@
       <c r="AN169" s="48"/>
       <c r="AO169" s="48"/>
     </row>
-    <row r="170" spans="1:41">
+    <row r="170" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A170" s="73"/>
       <c r="B170" s="75"/>
       <c r="C170" s="78"/>
@@ -15973,7 +15981,7 @@
       <c r="AN170" s="48"/>
       <c r="AO170" s="48"/>
     </row>
-    <row r="171" spans="1:41">
+    <row r="171" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A171" s="72">
         <v>3</v>
       </c>
@@ -16034,7 +16042,7 @@
       <c r="AN171" s="48"/>
       <c r="AO171" s="48"/>
     </row>
-    <row r="172" spans="1:41">
+    <row r="172" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A172" s="73"/>
       <c r="B172" s="78"/>
       <c r="C172" s="84"/>
@@ -16083,7 +16091,7 @@
       <c r="AN172" s="48"/>
       <c r="AO172" s="48"/>
     </row>
-    <row r="173" spans="1:41">
+    <row r="173" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A173" s="72"/>
       <c r="B173" s="74" t="s">
         <v>33</v>
@@ -16146,7 +16154,7 @@
       <c r="AN173" s="48"/>
       <c r="AO173" s="48"/>
     </row>
-    <row r="174" spans="1:41">
+    <row r="174" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A174" s="73"/>
       <c r="B174" s="75"/>
       <c r="C174" s="78"/>
@@ -16195,7 +16203,7 @@
       <c r="AN174" s="48"/>
       <c r="AO174" s="48"/>
     </row>
-    <row r="175" spans="1:41">
+    <row r="175" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A175" s="72"/>
       <c r="B175" s="74" t="s">
         <v>37</v>
@@ -16258,7 +16266,7 @@
       <c r="AN175" s="48"/>
       <c r="AO175" s="48"/>
     </row>
-    <row r="176" spans="1:41">
+    <row r="176" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A176" s="73"/>
       <c r="B176" s="75"/>
       <c r="C176" s="78"/>
@@ -16307,7 +16315,7 @@
       <c r="AN176" s="48"/>
       <c r="AO176" s="48"/>
     </row>
-    <row r="177" spans="1:41">
+    <row r="177" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A177" s="72"/>
       <c r="B177" s="74" t="s">
         <v>39</v>
@@ -16370,7 +16378,7 @@
       <c r="AN177" s="48"/>
       <c r="AO177" s="48"/>
     </row>
-    <row r="178" spans="1:41">
+    <row r="178" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A178" s="73"/>
       <c r="B178" s="75"/>
       <c r="C178" s="78"/>
@@ -16419,7 +16427,7 @@
       <c r="AN178" s="48"/>
       <c r="AO178" s="48"/>
     </row>
-    <row r="179" spans="1:41">
+    <row r="179" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A179" s="72"/>
       <c r="B179" s="74" t="s">
         <v>55</v>
@@ -16482,7 +16490,7 @@
       <c r="AN179" s="48"/>
       <c r="AO179" s="48"/>
     </row>
-    <row r="180" spans="1:41">
+    <row r="180" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A180" s="73"/>
       <c r="B180" s="75"/>
       <c r="C180" s="78"/>
@@ -16531,7 +16539,7 @@
       <c r="AN180" s="48"/>
       <c r="AO180" s="48"/>
     </row>
-    <row r="181" spans="1:41">
+    <row r="181" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A181" s="72">
         <v>4</v>
       </c>
@@ -16592,7 +16600,7 @@
       <c r="AN181" s="48"/>
       <c r="AO181" s="48"/>
     </row>
-    <row r="182" spans="1:41">
+    <row r="182" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A182" s="73"/>
       <c r="B182" s="78"/>
       <c r="C182" s="84"/>
@@ -16641,7 +16649,7 @@
       <c r="AN182" s="48"/>
       <c r="AO182" s="48"/>
     </row>
-    <row r="183" spans="1:41">
+    <row r="183" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A183" s="72"/>
       <c r="B183" s="74" t="s">
         <v>33</v>
@@ -16704,7 +16712,7 @@
       <c r="AN183" s="48"/>
       <c r="AO183" s="48"/>
     </row>
-    <row r="184" spans="1:41">
+    <row r="184" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A184" s="73"/>
       <c r="B184" s="75"/>
       <c r="C184" s="78"/>
@@ -16753,7 +16761,7 @@
       <c r="AN184" s="48"/>
       <c r="AO184" s="48"/>
     </row>
-    <row r="185" spans="1:41">
+    <row r="185" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A185" s="72"/>
       <c r="B185" s="74" t="s">
         <v>57</v>
@@ -16816,7 +16824,7 @@
       <c r="AN185" s="48"/>
       <c r="AO185" s="48"/>
     </row>
-    <row r="186" spans="1:41">
+    <row r="186" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A186" s="73"/>
       <c r="B186" s="75"/>
       <c r="C186" s="78"/>
@@ -16865,7 +16873,7 @@
       <c r="AN186" s="48"/>
       <c r="AO186" s="48"/>
     </row>
-    <row r="187" spans="1:41">
+    <row r="187" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A187" s="72"/>
       <c r="B187" s="74" t="s">
         <v>58</v>
@@ -16928,7 +16936,7 @@
       <c r="AN187" s="48"/>
       <c r="AO187" s="48"/>
     </row>
-    <row r="188" spans="1:41">
+    <row r="188" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A188" s="73"/>
       <c r="B188" s="75"/>
       <c r="C188" s="78"/>
@@ -16977,7 +16985,7 @@
       <c r="AN188" s="48"/>
       <c r="AO188" s="48"/>
     </row>
-    <row r="189" spans="1:41">
+    <row r="189" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A189" s="72"/>
       <c r="B189" s="74" t="s">
         <v>55</v>
@@ -17040,7 +17048,7 @@
       <c r="AN189" s="48"/>
       <c r="AO189" s="48"/>
     </row>
-    <row r="190" spans="1:41">
+    <row r="190" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A190" s="73"/>
       <c r="B190" s="75"/>
       <c r="C190" s="78"/>
@@ -17089,7 +17097,7 @@
       <c r="AN190" s="48"/>
       <c r="AO190" s="48"/>
     </row>
-    <row r="191" spans="1:41">
+    <row r="191" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A191" s="72">
         <v>5</v>
       </c>
@@ -17146,7 +17154,7 @@
       <c r="AN191" s="48"/>
       <c r="AO191" s="48"/>
     </row>
-    <row r="192" spans="1:41">
+    <row r="192" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A192" s="73"/>
       <c r="B192" s="78"/>
       <c r="C192" s="84"/>
@@ -17195,7 +17203,7 @@
       <c r="AN192" s="48"/>
       <c r="AO192" s="48"/>
     </row>
-    <row r="193" spans="1:41">
+    <row r="193" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A193" s="72"/>
       <c r="B193" s="74" t="s">
         <v>33</v>
@@ -17258,7 +17266,7 @@
       <c r="AN193" s="48"/>
       <c r="AO193" s="48"/>
     </row>
-    <row r="194" spans="1:41">
+    <row r="194" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A194" s="73"/>
       <c r="B194" s="75"/>
       <c r="C194" s="78"/>
@@ -17307,7 +17315,7 @@
       <c r="AN194" s="48"/>
       <c r="AO194" s="48"/>
     </row>
-    <row r="195" spans="1:41">
+    <row r="195" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A195" s="72"/>
       <c r="B195" s="74" t="s">
         <v>45</v>
@@ -17370,7 +17378,7 @@
       <c r="AN195" s="48"/>
       <c r="AO195" s="48"/>
     </row>
-    <row r="196" spans="1:41">
+    <row r="196" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A196" s="73"/>
       <c r="B196" s="75"/>
       <c r="C196" s="78"/>
@@ -17419,7 +17427,7 @@
       <c r="AN196" s="48"/>
       <c r="AO196" s="48"/>
     </row>
-    <row r="197" spans="1:41">
+    <row r="197" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A197" s="72"/>
       <c r="B197" s="74" t="s">
         <v>39</v>
@@ -17482,7 +17490,7 @@
       <c r="AN197" s="48"/>
       <c r="AO197" s="48"/>
     </row>
-    <row r="198" spans="1:41">
+    <row r="198" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A198" s="73"/>
       <c r="B198" s="75"/>
       <c r="C198" s="78"/>
@@ -17531,7 +17539,7 @@
       <c r="AN198" s="48"/>
       <c r="AO198" s="48"/>
     </row>
-    <row r="199" spans="1:41">
+    <row r="199" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A199" s="72"/>
       <c r="B199" s="74" t="s">
         <v>55</v>
@@ -17594,7 +17602,7 @@
       <c r="AN199" s="48"/>
       <c r="AO199" s="48"/>
     </row>
-    <row r="200" spans="1:41">
+    <row r="200" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A200" s="73"/>
       <c r="B200" s="75"/>
       <c r="C200" s="78"/>
@@ -17643,7 +17651,7 @@
       <c r="AN200" s="48"/>
       <c r="AO200" s="48"/>
     </row>
-    <row r="201" spans="1:41" ht="12" customHeight="1">
+    <row r="201" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="72">
         <v>6</v>
       </c>
@@ -17700,7 +17708,7 @@
       <c r="AN201" s="48"/>
       <c r="AO201" s="48"/>
     </row>
-    <row r="202" spans="1:41" ht="12" customHeight="1">
+    <row r="202" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="73"/>
       <c r="B202" s="78"/>
       <c r="C202" s="84"/>
@@ -17749,7 +17757,7 @@
       <c r="AN202" s="48"/>
       <c r="AO202" s="48"/>
     </row>
-    <row r="203" spans="1:41">
+    <row r="203" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A203" s="72"/>
       <c r="B203" s="74" t="s">
         <v>33</v>
@@ -17812,7 +17820,7 @@
       <c r="AN203" s="48"/>
       <c r="AO203" s="48"/>
     </row>
-    <row r="204" spans="1:41" ht="12" customHeight="1">
+    <row r="204" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="73"/>
       <c r="B204" s="75"/>
       <c r="C204" s="78"/>
@@ -17861,7 +17869,7 @@
       <c r="AN204" s="48"/>
       <c r="AO204" s="48"/>
     </row>
-    <row r="205" spans="1:41">
+    <row r="205" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A205" s="72"/>
       <c r="B205" s="74" t="s">
         <v>37</v>
@@ -17924,7 +17932,7 @@
       <c r="AN205" s="48"/>
       <c r="AO205" s="48"/>
     </row>
-    <row r="206" spans="1:41" ht="12" customHeight="1">
+    <row r="206" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="73"/>
       <c r="B206" s="75"/>
       <c r="C206" s="78"/>
@@ -17973,7 +17981,7 @@
       <c r="AN206" s="48"/>
       <c r="AO206" s="48"/>
     </row>
-    <row r="207" spans="1:41">
+    <row r="207" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A207" s="72"/>
       <c r="B207" s="74" t="s">
         <v>39</v>
@@ -18036,7 +18044,7 @@
       <c r="AN207" s="48"/>
       <c r="AO207" s="48"/>
     </row>
-    <row r="208" spans="1:41" ht="12" customHeight="1">
+    <row r="208" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="73"/>
       <c r="B208" s="75"/>
       <c r="C208" s="78"/>
@@ -18085,7 +18093,7 @@
       <c r="AN208" s="48"/>
       <c r="AO208" s="48"/>
     </row>
-    <row r="209" spans="1:41">
+    <row r="209" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A209" s="72"/>
       <c r="B209" s="74" t="s">
         <v>55</v>
@@ -18148,7 +18156,7 @@
       <c r="AN209" s="48"/>
       <c r="AO209" s="48"/>
     </row>
-    <row r="210" spans="1:41" ht="12" customHeight="1">
+    <row r="210" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="73"/>
       <c r="B210" s="75"/>
       <c r="C210" s="78"/>
@@ -18197,7 +18205,7 @@
       <c r="AN210" s="48"/>
       <c r="AO210" s="48"/>
     </row>
-    <row r="211" spans="1:41" ht="12" customHeight="1">
+    <row r="211" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="72">
         <v>7</v>
       </c>
@@ -18254,7 +18262,7 @@
       <c r="AN211" s="48"/>
       <c r="AO211" s="48"/>
     </row>
-    <row r="212" spans="1:41" ht="12" customHeight="1">
+    <row r="212" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="73"/>
       <c r="B212" s="78"/>
       <c r="C212" s="84"/>
@@ -18303,7 +18311,7 @@
       <c r="AN212" s="48"/>
       <c r="AO212" s="48"/>
     </row>
-    <row r="213" spans="1:41">
+    <row r="213" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A213" s="72"/>
       <c r="B213" s="74" t="s">
         <v>33</v>
@@ -18366,7 +18374,7 @@
       <c r="AN213" s="48"/>
       <c r="AO213" s="48"/>
     </row>
-    <row r="214" spans="1:41" ht="12" customHeight="1">
+    <row r="214" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="73"/>
       <c r="B214" s="75"/>
       <c r="C214" s="78"/>
@@ -18415,7 +18423,7 @@
       <c r="AN214" s="48"/>
       <c r="AO214" s="48"/>
     </row>
-    <row r="215" spans="1:41">
+    <row r="215" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A215" s="72"/>
       <c r="B215" s="74" t="s">
         <v>37</v>
@@ -18478,7 +18486,7 @@
       <c r="AN215" s="48"/>
       <c r="AO215" s="48"/>
     </row>
-    <row r="216" spans="1:41" ht="12" customHeight="1">
+    <row r="216" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="73"/>
       <c r="B216" s="75"/>
       <c r="C216" s="78"/>
@@ -18527,7 +18535,7 @@
       <c r="AN216" s="48"/>
       <c r="AO216" s="48"/>
     </row>
-    <row r="217" spans="1:41">
+    <row r="217" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A217" s="72"/>
       <c r="B217" s="74" t="s">
         <v>39</v>
@@ -18590,7 +18598,7 @@
       <c r="AN217" s="48"/>
       <c r="AO217" s="48"/>
     </row>
-    <row r="218" spans="1:41" ht="12" customHeight="1">
+    <row r="218" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="73"/>
       <c r="B218" s="75"/>
       <c r="C218" s="78"/>
@@ -18639,7 +18647,7 @@
       <c r="AN218" s="48"/>
       <c r="AO218" s="48"/>
     </row>
-    <row r="219" spans="1:41">
+    <row r="219" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A219" s="72"/>
       <c r="B219" s="74" t="s">
         <v>55</v>
@@ -18702,7 +18710,7 @@
       <c r="AN219" s="48"/>
       <c r="AO219" s="48"/>
     </row>
-    <row r="220" spans="1:41" ht="12" customHeight="1">
+    <row r="220" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="73"/>
       <c r="B220" s="75"/>
       <c r="C220" s="78"/>
@@ -18751,7 +18759,7 @@
       <c r="AN220" s="48"/>
       <c r="AO220" s="48"/>
     </row>
-    <row r="221" spans="1:41" ht="12" customHeight="1">
+    <row r="221" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="72">
         <v>8</v>
       </c>
@@ -18806,7 +18814,7 @@
       <c r="AN221" s="48"/>
       <c r="AO221" s="48"/>
     </row>
-    <row r="222" spans="1:41" ht="12" customHeight="1">
+    <row r="222" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="73"/>
       <c r="B222" s="78"/>
       <c r="C222" s="84"/>
@@ -18855,7 +18863,7 @@
       <c r="AN222" s="48"/>
       <c r="AO222" s="48"/>
     </row>
-    <row r="223" spans="1:41" ht="12" customHeight="1">
+    <row r="223" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="72"/>
       <c r="B223" s="74" t="s">
         <v>82</v>
@@ -18918,7 +18926,7 @@
       <c r="AN223" s="48"/>
       <c r="AO223" s="48"/>
     </row>
-    <row r="224" spans="1:41" ht="10.5" customHeight="1">
+    <row r="224" spans="1:41" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="73"/>
       <c r="B224" s="75"/>
       <c r="C224" s="78"/>
@@ -18967,7 +18975,7 @@
       <c r="AN224" s="48"/>
       <c r="AO224" s="48"/>
     </row>
-    <row r="225" spans="1:41" ht="12" customHeight="1">
+    <row r="225" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="72"/>
       <c r="B225" s="74" t="s">
         <v>45</v>
@@ -19030,7 +19038,7 @@
       <c r="AN225" s="48"/>
       <c r="AO225" s="48"/>
     </row>
-    <row r="226" spans="1:41" ht="10.5" customHeight="1">
+    <row r="226" spans="1:41" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="73"/>
       <c r="B226" s="75"/>
       <c r="C226" s="78"/>
@@ -19119,9 +19127,15 @@
     <mergeCell ref="E223:E224"/>
     <mergeCell ref="F223:F224"/>
     <mergeCell ref="G223:G224"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
     <mergeCell ref="E91:E92"/>
     <mergeCell ref="F91:F92"/>
     <mergeCell ref="G91:G92"/>
@@ -19131,14 +19145,6 @@
     <mergeCell ref="E93:E94"/>
     <mergeCell ref="F93:F94"/>
     <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
     <mergeCell ref="G63:G64"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="B57:D58"/>
@@ -19248,9 +19254,6 @@
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="C45:D46"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
     <mergeCell ref="E69:E70"/>
     <mergeCell ref="F69:F70"/>
     <mergeCell ref="F53:F54"/>
@@ -19272,15 +19275,23 @@
     <mergeCell ref="C85:D86"/>
     <mergeCell ref="E85:E86"/>
     <mergeCell ref="F85:F86"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C163:D164"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="C165:D166"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C157:D158"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:D90"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
     <mergeCell ref="G165:G166"/>
     <mergeCell ref="G159:G160"/>
     <mergeCell ref="F161:F162"/>
@@ -19393,7 +19404,6 @@
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="G21:G22"/>
-    <mergeCell ref="F65:F66"/>
     <mergeCell ref="G65:G66"/>
     <mergeCell ref="F73:F74"/>
     <mergeCell ref="G73:G74"/>
@@ -19417,10 +19427,7 @@
     <mergeCell ref="B67:D68"/>
     <mergeCell ref="E67:E68"/>
     <mergeCell ref="F67:F68"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="A69:A70"/>
     <mergeCell ref="G89:G90"/>
     <mergeCell ref="E79:E80"/>
     <mergeCell ref="F79:F80"/>
@@ -19439,12 +19446,6 @@
     <mergeCell ref="E87:E88"/>
     <mergeCell ref="F87:F88"/>
     <mergeCell ref="G87:G88"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:D100"/>
     <mergeCell ref="E99:E100"/>
     <mergeCell ref="F99:F100"/>
     <mergeCell ref="G99:G100"/>
@@ -19454,9 +19455,6 @@
     <mergeCell ref="E101:E102"/>
     <mergeCell ref="F101:F102"/>
     <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
     <mergeCell ref="E103:E104"/>
     <mergeCell ref="F103:F104"/>
     <mergeCell ref="G103:G104"/>
@@ -19466,9 +19464,6 @@
     <mergeCell ref="E105:E106"/>
     <mergeCell ref="F105:F106"/>
     <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
     <mergeCell ref="E107:E108"/>
     <mergeCell ref="F107:F108"/>
     <mergeCell ref="G107:G108"/>
@@ -19483,9 +19478,9 @@
     <mergeCell ref="E111:E112"/>
     <mergeCell ref="F111:F112"/>
     <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:D114"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
     <mergeCell ref="E113:E114"/>
     <mergeCell ref="F113:F114"/>
     <mergeCell ref="G113:G114"/>
@@ -19495,6 +19490,9 @@
     <mergeCell ref="E115:E116"/>
     <mergeCell ref="F115:F116"/>
     <mergeCell ref="G115:G116"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:D114"/>
     <mergeCell ref="A117:A118"/>
     <mergeCell ref="B117:B118"/>
     <mergeCell ref="C117:D118"/>
@@ -19564,6 +19562,13 @@
     <mergeCell ref="E139:E140"/>
     <mergeCell ref="F139:F140"/>
     <mergeCell ref="G139:G140"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="F149:F150"/>
     <mergeCell ref="A141:A142"/>
     <mergeCell ref="B141:B142"/>
     <mergeCell ref="C141:D142"/>
@@ -19576,12 +19581,19 @@
     <mergeCell ref="E143:E144"/>
     <mergeCell ref="F143:F144"/>
     <mergeCell ref="G143:G144"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:D164"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="C165:D166"/>
     <mergeCell ref="A145:A146"/>
     <mergeCell ref="B145:B146"/>
     <mergeCell ref="C145:D146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:D158"/>
     <mergeCell ref="B159:B160"/>
     <mergeCell ref="C159:D160"/>
     <mergeCell ref="B161:D162"/>
@@ -19596,15 +19608,6 @@
     <mergeCell ref="A153:A154"/>
     <mergeCell ref="F153:F154"/>
     <mergeCell ref="E153:E154"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B149:D150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="C167:D168"/>
-    <mergeCell ref="E167:E168"/>
-    <mergeCell ref="F167:F168"/>
     <mergeCell ref="G167:G168"/>
     <mergeCell ref="A169:A170"/>
     <mergeCell ref="B169:B170"/>
@@ -19617,6 +19620,11 @@
     <mergeCell ref="E171:E172"/>
     <mergeCell ref="F171:F172"/>
     <mergeCell ref="G171:G172"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="C167:D168"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="F167:F168"/>
     <mergeCell ref="A173:A174"/>
     <mergeCell ref="B173:B174"/>
     <mergeCell ref="C173:D174"/>

--- a/00_プロジェクト管理/WBSガントチャート_07.xlsx
+++ b/00_プロジェクト管理/WBSガントチャート_07.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD0ECA4-738E-4839-8863-54686022CB83}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECAD87A-8D74-40C6-B81F-7B9B3DB68031}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="930" windowWidth="12930" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1245" yWindow="540" windowWidth="12930" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
@@ -6623,7 +6623,7 @@
   <dimension ref="A1:AO226"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="L30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="L27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="O40" sqref="O40"/>

--- a/00_プロジェクト管理/WBSガントチャート_07.xlsx
+++ b/00_プロジェクト管理/WBSガントチャート_07.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECAD87A-8D74-40C6-B81F-7B9B3DB68031}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80DA1B1-7229-43A3-B8E7-88E29DF489B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="540" windowWidth="12930" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="2730" windowWidth="12930" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
@@ -1610,47 +1610,26 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1664,43 +1643,22 @@
     <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1709,22 +1667,61 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1745,46 +1742,49 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6623,10 +6623,10 @@
   <dimension ref="A1:AO226"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="L27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="L31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O40" sqref="O40"/>
+      <selection pane="bottomRight" activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -6646,192 +6646,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="119" t="s">
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="119" t="s">
+      <c r="F1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="123" t="s">
+      <c r="G1" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="119" t="s">
+      <c r="H1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="119" t="s">
+      <c r="I1" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="119" t="s">
+      <c r="J1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="145" t="s">
+      <c r="K1" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="103">
+      <c r="L1" s="96">
         <v>43984</v>
       </c>
-      <c r="M1" s="104"/>
-      <c r="N1" s="103">
+      <c r="M1" s="97"/>
+      <c r="N1" s="96">
         <v>43985</v>
       </c>
-      <c r="O1" s="104"/>
-      <c r="P1" s="103">
+      <c r="O1" s="97"/>
+      <c r="P1" s="96">
         <v>43986</v>
       </c>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="103">
+      <c r="Q1" s="97"/>
+      <c r="R1" s="96">
         <v>43987</v>
       </c>
-      <c r="S1" s="104"/>
-      <c r="T1" s="103">
+      <c r="S1" s="97"/>
+      <c r="T1" s="96">
         <v>43990</v>
       </c>
-      <c r="U1" s="104"/>
-      <c r="V1" s="103">
+      <c r="U1" s="97"/>
+      <c r="V1" s="96">
         <v>43991</v>
       </c>
-      <c r="W1" s="104"/>
-      <c r="X1" s="103">
+      <c r="W1" s="97"/>
+      <c r="X1" s="96">
         <v>43992</v>
       </c>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="103">
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="96">
         <v>43993</v>
       </c>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="103">
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="96">
         <v>43994</v>
       </c>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="103">
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="96">
         <v>43997</v>
       </c>
-      <c r="AE1" s="104"/>
+      <c r="AE1" s="97"/>
     </row>
     <row r="2" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="124"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="117" t="s">
+      <c r="A2" s="125"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="118"/>
-      <c r="N2" s="105" t="s">
+      <c r="M2" s="138"/>
+      <c r="N2" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="106"/>
-      <c r="P2" s="105" t="s">
+      <c r="O2" s="99"/>
+      <c r="P2" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="105" t="s">
+      <c r="Q2" s="99"/>
+      <c r="R2" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="106"/>
-      <c r="T2" s="105" t="s">
+      <c r="S2" s="99"/>
+      <c r="T2" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="106"/>
-      <c r="V2" s="105" t="s">
+      <c r="U2" s="99"/>
+      <c r="V2" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="106"/>
-      <c r="X2" s="105" t="s">
+      <c r="W2" s="99"/>
+      <c r="X2" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="105" t="s">
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="106"/>
-      <c r="AB2" s="105" t="s">
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="AC2" s="106"/>
-      <c r="AD2" s="105" t="s">
+      <c r="AC2" s="99"/>
+      <c r="AD2" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="AE2" s="106"/>
+      <c r="AE2" s="99"/>
     </row>
     <row r="3" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="124"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="109" t="s">
+      <c r="A3" s="125"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="108"/>
-      <c r="N3" s="107" t="s">
+      <c r="M3" s="140"/>
+      <c r="N3" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="108"/>
-      <c r="P3" s="107" t="s">
+      <c r="O3" s="140"/>
+      <c r="P3" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="102" t="s">
+      <c r="Q3" s="140"/>
+      <c r="R3" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="102"/>
-      <c r="T3" s="102" t="s">
+      <c r="S3" s="100"/>
+      <c r="T3" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="102"/>
-      <c r="V3" s="102" t="s">
+      <c r="U3" s="100"/>
+      <c r="V3" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="102"/>
-      <c r="X3" s="109" t="s">
+      <c r="W3" s="100"/>
+      <c r="X3" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="107" t="s">
+      <c r="Y3" s="140"/>
+      <c r="Z3" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="AA3" s="108"/>
-      <c r="AB3" s="107" t="s">
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="102" t="s">
+      <c r="AC3" s="140"/>
+      <c r="AD3" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="AE3" s="102"/>
+      <c r="AE3" s="100"/>
     </row>
     <row r="4" spans="1:31" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="126"/>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="147"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="120"/>
       <c r="L4" s="2" t="s">
         <v>23</v>
       </c>
@@ -6894,15 +6894,15 @@
       </c>
     </row>
     <row r="5" spans="1:31" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="143"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="108"/>
       <c r="H5" s="16" t="s">
         <v>26</v>
       </c>
@@ -6994,13 +6994,13 @@
       </c>
     </row>
     <row r="6" spans="1:31" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="131"/>
-      <c r="B6" s="132"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="144"/>
+      <c r="A6" s="130"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="109"/>
       <c r="H6" s="18" t="s">
         <v>27</v>
       </c>
@@ -7008,7 +7008,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="41">
         <f t="shared" ref="K6:AE6" si="1">SUM(K8,K80,K152)</f>
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="L6" s="27">
         <f t="shared" si="1"/>
@@ -7016,15 +7016,15 @@
       </c>
       <c r="M6" s="27">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N6" s="27">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O6" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="P6" s="27">
         <f t="shared" si="1"/>
@@ -7092,15 +7092,15 @@
       </c>
     </row>
     <row r="7" spans="1:31" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="98"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="133"/>
       <c r="H7" s="4" t="s">
         <v>26</v>
       </c>
@@ -7194,13 +7194,13 @@
       </c>
     </row>
     <row r="8" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="92"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="99"/>
+      <c r="A8" s="115"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="134"/>
       <c r="H8" s="6" t="s">
         <v>27</v>
       </c>
@@ -7208,7 +7208,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="57">
         <f>SUM(K10,K18,K28,K38,K48,K58,K68,K78)</f>
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="L8" s="58">
         <f t="shared" ref="L8:R8" si="4">SUM(L12,L14,L16,L18,L20,L22,L24,L26,L30,L32,L34,L36,L40,L42,L44,L46,L50,L52,L54,L56,L60,L62,L64,L66,L70,L72,L74,L76,L78)</f>
@@ -7216,15 +7216,15 @@
       </c>
       <c r="M8" s="58">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N8" s="58">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O8" s="58">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P8" s="58">
         <f t="shared" si="4"/>
@@ -8222,7 +8222,7 @@
       <c r="J28" s="23"/>
       <c r="K28" s="22">
         <f>SUM(K30,K32,K34,K36)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L28" s="62"/>
       <c r="M28" s="63"/>
@@ -8506,14 +8506,16 @@
       <c r="J34" s="23"/>
       <c r="K34" s="9">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L34" s="45"/>
       <c r="M34" s="46"/>
       <c r="N34" s="46">
         <v>6</v>
       </c>
-      <c r="O34" s="46"/>
+      <c r="O34" s="46">
+        <v>1</v>
+      </c>
       <c r="P34" s="46"/>
       <c r="Q34" s="46"/>
       <c r="R34" s="46"/>
@@ -8602,11 +8604,13 @@
       <c r="J36" s="23"/>
       <c r="K36" s="9">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L36" s="45"/>
       <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
+      <c r="N36" s="46">
+        <v>2</v>
+      </c>
       <c r="O36" s="46">
         <v>2</v>
       </c>
@@ -8628,7 +8632,7 @@
       <c r="AE36" s="54"/>
     </row>
     <row r="37" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="114">
+      <c r="A37" s="89">
         <v>4</v>
       </c>
       <c r="B37" s="76" t="s">
@@ -8677,7 +8681,7 @@
       <c r="AE37" s="53"/>
     </row>
     <row r="38" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="115"/>
+      <c r="A38" s="90"/>
       <c r="B38" s="78"/>
       <c r="C38" s="84"/>
       <c r="D38" s="79"/>
@@ -8692,7 +8696,7 @@
       <c r="J38" s="23"/>
       <c r="K38" s="22">
         <f>SUM(K40,K42,K44,K46)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L38" s="62"/>
       <c r="M38" s="63"/>
@@ -8716,19 +8720,19 @@
       <c r="AE38" s="54"/>
     </row>
     <row r="39" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="114"/>
-      <c r="B39" s="116" t="s">
+      <c r="A39" s="89"/>
+      <c r="B39" s="91" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="76" t="s">
         <v>53</v>
       </c>
       <c r="D39" s="77"/>
-      <c r="E39" s="112" t="s">
+      <c r="E39" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="110" t="s">
+      <c r="F39" s="93"/>
+      <c r="G39" s="95" t="s">
         <v>35</v>
       </c>
       <c r="H39" s="8" t="str">
@@ -8769,13 +8773,13 @@
       <c r="AE39" s="53"/>
     </row>
     <row r="40" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="115"/>
-      <c r="B40" s="111"/>
+      <c r="A40" s="90"/>
+      <c r="B40" s="92"/>
       <c r="C40" s="78"/>
       <c r="D40" s="79"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="113"/>
-      <c r="G40" s="111"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="92"/>
       <c r="H40" s="71" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -8784,12 +8788,14 @@
       <c r="J40" s="23"/>
       <c r="K40" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L40" s="38"/>
       <c r="M40" s="31"/>
       <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
+      <c r="O40" s="31">
+        <v>5</v>
+      </c>
       <c r="P40" s="31"/>
       <c r="Q40" s="31"/>
       <c r="R40" s="31"/>
@@ -8808,19 +8814,19 @@
       <c r="AE40" s="54"/>
     </row>
     <row r="41" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="114"/>
-      <c r="B41" s="116" t="s">
+      <c r="A41" s="89"/>
+      <c r="B41" s="91" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="76" t="s">
         <v>54</v>
       </c>
       <c r="D41" s="77"/>
-      <c r="E41" s="112" t="s">
+      <c r="E41" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="110" t="s">
+      <c r="F41" s="93"/>
+      <c r="G41" s="95" t="s">
         <v>35</v>
       </c>
       <c r="H41" s="8" t="str">
@@ -8861,13 +8867,13 @@
       <c r="AE41" s="53"/>
     </row>
     <row r="42" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="115"/>
-      <c r="B42" s="111"/>
+      <c r="A42" s="90"/>
+      <c r="B42" s="92"/>
       <c r="C42" s="78"/>
       <c r="D42" s="79"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="113"/>
-      <c r="G42" s="111"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="92"/>
       <c r="H42" s="71" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -8876,12 +8882,14 @@
       <c r="J42" s="23"/>
       <c r="K42" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L42" s="38"/>
       <c r="M42" s="31"/>
       <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
+      <c r="O42" s="31">
+        <v>3</v>
+      </c>
       <c r="P42" s="31"/>
       <c r="Q42" s="31"/>
       <c r="R42" s="31"/>
@@ -8968,12 +8976,14 @@
       <c r="J44" s="23"/>
       <c r="K44" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="45"/>
       <c r="M44" s="46"/>
       <c r="N44" s="46"/>
-      <c r="O44" s="46"/>
+      <c r="O44" s="46">
+        <v>1</v>
+      </c>
       <c r="P44" s="46"/>
       <c r="Q44" s="46"/>
       <c r="R44" s="46"/>
@@ -9104,7 +9114,7 @@
       <c r="AO46" s="48"/>
     </row>
     <row r="47" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="114">
+      <c r="A47" s="89">
         <v>5</v>
       </c>
       <c r="B47" s="76" t="s">
@@ -9147,7 +9157,7 @@
       <c r="AE47" s="53"/>
     </row>
     <row r="48" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="115"/>
+      <c r="A48" s="90"/>
       <c r="B48" s="78"/>
       <c r="C48" s="84"/>
       <c r="D48" s="79"/>
@@ -9162,7 +9172,7 @@
       <c r="J48" s="24"/>
       <c r="K48" s="25">
         <f>SUM(K50,K52,K54,K56)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L48" s="62"/>
       <c r="M48" s="63"/>
@@ -9298,19 +9308,19 @@
       <c r="AO50" s="48"/>
     </row>
     <row r="51" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="114"/>
-      <c r="B51" s="116" t="s">
+      <c r="A51" s="89"/>
+      <c r="B51" s="91" t="s">
         <v>45</v>
       </c>
       <c r="C51" s="76" t="s">
         <v>62</v>
       </c>
       <c r="D51" s="77"/>
-      <c r="E51" s="112" t="s">
+      <c r="E51" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="F51" s="112"/>
-      <c r="G51" s="110" t="s">
+      <c r="F51" s="93"/>
+      <c r="G51" s="95" t="s">
         <v>35</v>
       </c>
       <c r="H51" s="8" t="str">
@@ -9351,13 +9361,13 @@
       <c r="AE51" s="53"/>
     </row>
     <row r="52" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="115"/>
-      <c r="B52" s="111"/>
+      <c r="A52" s="90"/>
+      <c r="B52" s="92"/>
       <c r="C52" s="78"/>
       <c r="D52" s="79"/>
-      <c r="E52" s="113"/>
-      <c r="F52" s="113"/>
-      <c r="G52" s="111"/>
+      <c r="E52" s="94"/>
+      <c r="F52" s="94"/>
+      <c r="G52" s="92"/>
       <c r="H52" s="71" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -9468,10 +9478,12 @@
       <c r="J54" s="66"/>
       <c r="K54" s="10">
         <f>SUM(L54:W54)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L54" s="45"/>
-      <c r="M54" s="46"/>
+      <c r="M54" s="46">
+        <v>3</v>
+      </c>
       <c r="N54" s="46"/>
       <c r="O54" s="46"/>
       <c r="P54" s="46"/>
@@ -9502,19 +9514,19 @@
       <c r="AO54" s="48"/>
     </row>
     <row r="55" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="114"/>
-      <c r="B55" s="116" t="s">
+      <c r="A55" s="89"/>
+      <c r="B55" s="91" t="s">
         <v>55</v>
       </c>
       <c r="C55" s="76" t="s">
         <v>40</v>
       </c>
       <c r="D55" s="77"/>
-      <c r="E55" s="112" t="s">
+      <c r="E55" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="F55" s="112"/>
-      <c r="G55" s="110" t="s">
+      <c r="F55" s="93"/>
+      <c r="G55" s="95" t="s">
         <v>64</v>
       </c>
       <c r="H55" s="8" t="str">
@@ -9554,13 +9566,13 @@
       <c r="AE55" s="53"/>
     </row>
     <row r="56" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="115"/>
-      <c r="B56" s="111"/>
+      <c r="A56" s="90"/>
+      <c r="B56" s="92"/>
       <c r="C56" s="78"/>
       <c r="D56" s="79"/>
-      <c r="E56" s="113"/>
-      <c r="F56" s="113"/>
-      <c r="G56" s="111"/>
+      <c r="E56" s="94"/>
+      <c r="F56" s="94"/>
+      <c r="G56" s="92"/>
       <c r="H56" s="71" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -9593,7 +9605,7 @@
       <c r="AE56" s="54"/>
     </row>
     <row r="57" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="114">
+      <c r="A57" s="89">
         <v>6</v>
       </c>
       <c r="B57" s="76" t="s">
@@ -9636,7 +9648,7 @@
       <c r="AE57" s="53"/>
     </row>
     <row r="58" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="115"/>
+      <c r="A58" s="90"/>
       <c r="B58" s="78"/>
       <c r="C58" s="84"/>
       <c r="D58" s="79"/>
@@ -9675,19 +9687,19 @@
       <c r="AE58" s="54"/>
     </row>
     <row r="59" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="114"/>
-      <c r="B59" s="116" t="s">
+      <c r="A59" s="89"/>
+      <c r="B59" s="91" t="s">
         <v>33</v>
       </c>
       <c r="C59" s="76" t="s">
         <v>66</v>
       </c>
       <c r="D59" s="77"/>
-      <c r="E59" s="112" t="s">
+      <c r="E59" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="F59" s="112"/>
-      <c r="G59" s="110" t="s">
+      <c r="F59" s="93"/>
+      <c r="G59" s="95" t="s">
         <v>35</v>
       </c>
       <c r="H59" s="8" t="str">
@@ -9728,13 +9740,13 @@
       <c r="AE59" s="53"/>
     </row>
     <row r="60" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="115"/>
-      <c r="B60" s="111"/>
+      <c r="A60" s="90"/>
+      <c r="B60" s="92"/>
       <c r="C60" s="78"/>
       <c r="D60" s="79"/>
-      <c r="E60" s="113"/>
-      <c r="F60" s="113"/>
-      <c r="G60" s="111"/>
+      <c r="E60" s="94"/>
+      <c r="F60" s="94"/>
+      <c r="G60" s="92"/>
       <c r="H60" s="71" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -9879,18 +9891,18 @@
       <c r="AO62" s="48"/>
     </row>
     <row r="63" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="114"/>
-      <c r="B63" s="116" t="s">
+      <c r="A63" s="89"/>
+      <c r="B63" s="91" t="s">
         <v>39</v>
       </c>
       <c r="C63" s="76" t="s">
         <v>68</v>
       </c>
       <c r="D63" s="77"/>
-      <c r="E63" s="112" t="s">
+      <c r="E63" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="F63" s="112"/>
+      <c r="F63" s="93"/>
       <c r="G63" s="82" t="s">
         <v>35</v>
       </c>
@@ -9932,12 +9944,12 @@
       <c r="AE63" s="53"/>
     </row>
     <row r="64" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="115"/>
-      <c r="B64" s="111"/>
+      <c r="A64" s="90"/>
+      <c r="B64" s="92"/>
       <c r="C64" s="78"/>
       <c r="D64" s="79"/>
-      <c r="E64" s="113"/>
-      <c r="F64" s="113"/>
+      <c r="E64" s="94"/>
+      <c r="F64" s="94"/>
       <c r="G64" s="75"/>
       <c r="H64" s="71" t="str">
         <f>IF(E63="","","実績")</f>
@@ -10677,15 +10689,15 @@
       <c r="AO78" s="48"/>
     </row>
     <row r="79" spans="1:41" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="136" t="s">
+      <c r="A79" s="112" t="s">
         <v>75</v>
       </c>
-      <c r="B79" s="137"/>
-      <c r="C79" s="137"/>
-      <c r="D79" s="138"/>
-      <c r="E79" s="97"/>
-      <c r="F79" s="97"/>
-      <c r="G79" s="98"/>
+      <c r="B79" s="113"/>
+      <c r="C79" s="113"/>
+      <c r="D79" s="114"/>
+      <c r="E79" s="135"/>
+      <c r="F79" s="135"/>
+      <c r="G79" s="133"/>
       <c r="H79" s="4" t="s">
         <v>26</v>
       </c>
@@ -10774,13 +10786,13 @@
       <c r="AO79" s="48"/>
     </row>
     <row r="80" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="92"/>
-      <c r="B80" s="93"/>
-      <c r="C80" s="93"/>
-      <c r="D80" s="94"/>
-      <c r="E80" s="96"/>
-      <c r="F80" s="96"/>
-      <c r="G80" s="99"/>
+      <c r="A80" s="115"/>
+      <c r="B80" s="116"/>
+      <c r="C80" s="116"/>
+      <c r="D80" s="117"/>
+      <c r="E80" s="136"/>
+      <c r="F80" s="136"/>
+      <c r="G80" s="134"/>
       <c r="H80" s="6" t="s">
         <v>27</v>
       </c>
@@ -10796,7 +10808,7 @@
       </c>
       <c r="M80" s="29">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N80" s="29">
         <f t="shared" si="14"/>
@@ -10804,7 +10816,7 @@
       </c>
       <c r="O80" s="29">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P80" s="29">
         <f t="shared" si="14"/>
@@ -10893,7 +10905,7 @@
       <c r="E81" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="F81" s="100"/>
+      <c r="F81" s="142"/>
       <c r="G81" s="87" t="s">
         <v>32</v>
       </c>
@@ -10948,7 +10960,7 @@
       <c r="C82" s="84"/>
       <c r="D82" s="79"/>
       <c r="E82" s="86"/>
-      <c r="F82" s="101"/>
+      <c r="F82" s="143"/>
       <c r="G82" s="88"/>
       <c r="H82" s="24" t="str">
         <f>IF(E81="","","実績")</f>
@@ -14770,17 +14782,17 @@
       <c r="AO150" s="48"/>
     </row>
     <row r="151" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="89" t="s">
+      <c r="A151" s="144" t="s">
         <v>80</v>
       </c>
-      <c r="B151" s="90"/>
-      <c r="C151" s="90"/>
-      <c r="D151" s="91"/>
-      <c r="E151" s="95" t="s">
+      <c r="B151" s="145"/>
+      <c r="C151" s="145"/>
+      <c r="D151" s="146"/>
+      <c r="E151" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="F151" s="95"/>
-      <c r="G151" s="139" t="s">
+      <c r="F151" s="147"/>
+      <c r="G151" s="101" t="s">
         <v>69</v>
       </c>
       <c r="H151" s="20" t="s">
@@ -14878,13 +14890,13 @@
       </c>
     </row>
     <row r="152" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="92"/>
-      <c r="B152" s="93"/>
-      <c r="C152" s="93"/>
-      <c r="D152" s="94"/>
-      <c r="E152" s="96"/>
-      <c r="F152" s="96"/>
-      <c r="G152" s="140"/>
+      <c r="A152" s="115"/>
+      <c r="B152" s="116"/>
+      <c r="C152" s="116"/>
+      <c r="D152" s="117"/>
+      <c r="E152" s="136"/>
+      <c r="F152" s="136"/>
+      <c r="G152" s="102"/>
       <c r="H152" s="7" t="s">
         <v>27</v>
       </c>
@@ -19094,6 +19106,654 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="672">
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="C219:D220"/>
+    <mergeCell ref="E219:E220"/>
+    <mergeCell ref="F219:F220"/>
+    <mergeCell ref="G219:G220"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="E213:E214"/>
+    <mergeCell ref="F213:F214"/>
+    <mergeCell ref="G213:G214"/>
+    <mergeCell ref="C215:D216"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="E211:E212"/>
+    <mergeCell ref="F211:F212"/>
+    <mergeCell ref="G211:G212"/>
+    <mergeCell ref="E215:E216"/>
+    <mergeCell ref="F215:F216"/>
+    <mergeCell ref="G215:G216"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="C217:D218"/>
+    <mergeCell ref="E217:E218"/>
+    <mergeCell ref="F217:F218"/>
+    <mergeCell ref="G217:G218"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="C207:D208"/>
+    <mergeCell ref="E207:E208"/>
+    <mergeCell ref="F207:F208"/>
+    <mergeCell ref="G207:G208"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="C209:D210"/>
+    <mergeCell ref="E209:E210"/>
+    <mergeCell ref="F209:F210"/>
+    <mergeCell ref="G209:G210"/>
+    <mergeCell ref="A203:A204"/>
+    <mergeCell ref="E203:E204"/>
+    <mergeCell ref="F203:F204"/>
+    <mergeCell ref="G203:G204"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="C205:D206"/>
+    <mergeCell ref="E205:E206"/>
+    <mergeCell ref="F205:F206"/>
+    <mergeCell ref="G205:G206"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="C197:D198"/>
+    <mergeCell ref="E197:E198"/>
+    <mergeCell ref="F197:F198"/>
+    <mergeCell ref="G197:G198"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="C199:D200"/>
+    <mergeCell ref="E199:E200"/>
+    <mergeCell ref="F199:F200"/>
+    <mergeCell ref="G199:G200"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="C193:D194"/>
+    <mergeCell ref="E193:E194"/>
+    <mergeCell ref="F193:F194"/>
+    <mergeCell ref="G193:G194"/>
+    <mergeCell ref="A195:A196"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="C195:D196"/>
+    <mergeCell ref="E195:E196"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="G195:G196"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="C189:D190"/>
+    <mergeCell ref="E189:E190"/>
+    <mergeCell ref="F189:F190"/>
+    <mergeCell ref="G189:G190"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="B191:D192"/>
+    <mergeCell ref="E191:E192"/>
+    <mergeCell ref="F191:F192"/>
+    <mergeCell ref="G191:G192"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="C185:D186"/>
+    <mergeCell ref="E185:E186"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="G185:G186"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="C187:D188"/>
+    <mergeCell ref="E187:E188"/>
+    <mergeCell ref="F187:F188"/>
+    <mergeCell ref="G187:G188"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:D182"/>
+    <mergeCell ref="E181:E182"/>
+    <mergeCell ref="F181:F182"/>
+    <mergeCell ref="G181:G182"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="C183:D184"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="F183:F184"/>
+    <mergeCell ref="G183:G184"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="C177:D178"/>
+    <mergeCell ref="E177:E178"/>
+    <mergeCell ref="F177:F178"/>
+    <mergeCell ref="G177:G178"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="C179:D180"/>
+    <mergeCell ref="E179:E180"/>
+    <mergeCell ref="F179:F180"/>
+    <mergeCell ref="G179:G180"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="C173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="G173:G174"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="C175:D176"/>
+    <mergeCell ref="E175:E176"/>
+    <mergeCell ref="F175:F176"/>
+    <mergeCell ref="G175:G176"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="B171:D172"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="G171:G172"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="C167:D168"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="C155:D156"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="F153:F154"/>
+    <mergeCell ref="E153:E154"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="C169:D170"/>
+    <mergeCell ref="E169:E170"/>
+    <mergeCell ref="F169:F170"/>
+    <mergeCell ref="G169:G170"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:D164"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="C165:D166"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:D146"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:D158"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="C159:D160"/>
+    <mergeCell ref="B161:D162"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A151:D152"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:D138"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:D140"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:D134"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:D136"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:D114"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="G165:G166"/>
+    <mergeCell ref="G159:G160"/>
+    <mergeCell ref="F161:F162"/>
+    <mergeCell ref="G161:G162"/>
+    <mergeCell ref="F163:F164"/>
+    <mergeCell ref="G163:G164"/>
+    <mergeCell ref="F165:F166"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="E163:E164"/>
+    <mergeCell ref="E161:E162"/>
+    <mergeCell ref="E159:E160"/>
+    <mergeCell ref="E165:E166"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:D90"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:D48"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B37:D38"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:D18"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="G157:G158"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="B153:D154"/>
+    <mergeCell ref="G155:G156"/>
+    <mergeCell ref="G153:G154"/>
+    <mergeCell ref="F155:F156"/>
+    <mergeCell ref="E155:E156"/>
+    <mergeCell ref="F157:F158"/>
+    <mergeCell ref="E157:E158"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="G221:G222"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="C223:D224"/>
+    <mergeCell ref="E223:E224"/>
+    <mergeCell ref="F223:F224"/>
+    <mergeCell ref="G223:G224"/>
     <mergeCell ref="A225:A226"/>
     <mergeCell ref="B225:B226"/>
     <mergeCell ref="C225:D226"/>
@@ -19118,654 +19778,6 @@
     <mergeCell ref="C213:D214"/>
     <mergeCell ref="A221:A222"/>
     <mergeCell ref="B221:D222"/>
-    <mergeCell ref="E221:E222"/>
-    <mergeCell ref="F221:F222"/>
-    <mergeCell ref="G221:G222"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="C223:D224"/>
-    <mergeCell ref="E223:E224"/>
-    <mergeCell ref="F223:F224"/>
-    <mergeCell ref="G223:G224"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="G157:G158"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="B153:D154"/>
-    <mergeCell ref="G155:G156"/>
-    <mergeCell ref="G153:G154"/>
-    <mergeCell ref="F155:F156"/>
-    <mergeCell ref="E155:E156"/>
-    <mergeCell ref="F157:F158"/>
-    <mergeCell ref="E157:E158"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B37:D38"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:D18"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:D48"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:D90"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="G165:G166"/>
-    <mergeCell ref="G159:G160"/>
-    <mergeCell ref="F161:F162"/>
-    <mergeCell ref="G161:G162"/>
-    <mergeCell ref="F163:F164"/>
-    <mergeCell ref="G163:G164"/>
-    <mergeCell ref="F165:F166"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="E163:E164"/>
-    <mergeCell ref="E161:E162"/>
-    <mergeCell ref="E159:E160"/>
-    <mergeCell ref="E165:E166"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:D114"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:D130"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:D134"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:D136"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:D138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="G137:G138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:D140"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B149:D150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C163:D164"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="C165:D166"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:D146"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C157:D158"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="C159:D160"/>
-    <mergeCell ref="B161:D162"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="A151:D152"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="C155:D156"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="F153:F154"/>
-    <mergeCell ref="E153:E154"/>
-    <mergeCell ref="G167:G168"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="C169:D170"/>
-    <mergeCell ref="E169:E170"/>
-    <mergeCell ref="F169:F170"/>
-    <mergeCell ref="G169:G170"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="B171:D172"/>
-    <mergeCell ref="E171:E172"/>
-    <mergeCell ref="F171:F172"/>
-    <mergeCell ref="G171:G172"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="C167:D168"/>
-    <mergeCell ref="E167:E168"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="C173:D174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="G173:G174"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="C175:D176"/>
-    <mergeCell ref="E175:E176"/>
-    <mergeCell ref="F175:F176"/>
-    <mergeCell ref="G175:G176"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="C177:D178"/>
-    <mergeCell ref="E177:E178"/>
-    <mergeCell ref="F177:F178"/>
-    <mergeCell ref="G177:G178"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="C179:D180"/>
-    <mergeCell ref="E179:E180"/>
-    <mergeCell ref="F179:F180"/>
-    <mergeCell ref="G179:G180"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:D182"/>
-    <mergeCell ref="E181:E182"/>
-    <mergeCell ref="F181:F182"/>
-    <mergeCell ref="G181:G182"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="C183:D184"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="F183:F184"/>
-    <mergeCell ref="G183:G184"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="C185:D186"/>
-    <mergeCell ref="E185:E186"/>
-    <mergeCell ref="F185:F186"/>
-    <mergeCell ref="G185:G186"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="C187:D188"/>
-    <mergeCell ref="E187:E188"/>
-    <mergeCell ref="F187:F188"/>
-    <mergeCell ref="G187:G188"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="C189:D190"/>
-    <mergeCell ref="E189:E190"/>
-    <mergeCell ref="F189:F190"/>
-    <mergeCell ref="G189:G190"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="B191:D192"/>
-    <mergeCell ref="E191:E192"/>
-    <mergeCell ref="F191:F192"/>
-    <mergeCell ref="G191:G192"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="C193:D194"/>
-    <mergeCell ref="E193:E194"/>
-    <mergeCell ref="F193:F194"/>
-    <mergeCell ref="G193:G194"/>
-    <mergeCell ref="A195:A196"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="C195:D196"/>
-    <mergeCell ref="E195:E196"/>
-    <mergeCell ref="F195:F196"/>
-    <mergeCell ref="G195:G196"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="C197:D198"/>
-    <mergeCell ref="E197:E198"/>
-    <mergeCell ref="F197:F198"/>
-    <mergeCell ref="G197:G198"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="C199:D200"/>
-    <mergeCell ref="E199:E200"/>
-    <mergeCell ref="F199:F200"/>
-    <mergeCell ref="G199:G200"/>
-    <mergeCell ref="A203:A204"/>
-    <mergeCell ref="E203:E204"/>
-    <mergeCell ref="F203:F204"/>
-    <mergeCell ref="G203:G204"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="C205:D206"/>
-    <mergeCell ref="E205:E206"/>
-    <mergeCell ref="F205:F206"/>
-    <mergeCell ref="G205:G206"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="B207:B208"/>
-    <mergeCell ref="C207:D208"/>
-    <mergeCell ref="E207:E208"/>
-    <mergeCell ref="F207:F208"/>
-    <mergeCell ref="G207:G208"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="B209:B210"/>
-    <mergeCell ref="C209:D210"/>
-    <mergeCell ref="E209:E210"/>
-    <mergeCell ref="F209:F210"/>
-    <mergeCell ref="G209:G210"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="E211:E212"/>
-    <mergeCell ref="F211:F212"/>
-    <mergeCell ref="G211:G212"/>
-    <mergeCell ref="E215:E216"/>
-    <mergeCell ref="F215:F216"/>
-    <mergeCell ref="G215:G216"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="C217:D218"/>
-    <mergeCell ref="E217:E218"/>
-    <mergeCell ref="F217:F218"/>
-    <mergeCell ref="G217:G218"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="C219:D220"/>
-    <mergeCell ref="E219:E220"/>
-    <mergeCell ref="F219:F220"/>
-    <mergeCell ref="G219:G220"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A215:A216"/>
-    <mergeCell ref="B215:B216"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="E213:E214"/>
-    <mergeCell ref="F213:F214"/>
-    <mergeCell ref="G213:G214"/>
-    <mergeCell ref="C215:D216"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L37:W42 L47:W52 L55:W56">
@@ -22279,21 +22291,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -22477,24 +22474,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F66ED76-1AA6-47C4-ACB3-55436DA3AAF4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22510,4 +22505,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>